--- a/InputData/trans/BAADTbVT/BAU Avg Annual Dist Traveled by Veh Type_HK.xlsx
+++ b/InputData/trans/BAADTbVT/BAU Avg Annual Dist Traveled by Veh Type_HK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\trans\BAADTbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\trans\BAADTbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1238" documentId="11_AD82337C2350E43599ECDF91D5F6DA9B4D08506B" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{11EAA654-C617-4E3E-B87E-838E42F973F5}"/>
+  <xr:revisionPtr revIDLastSave="1258" documentId="11_AD82337C2350E43599ECDF91D5F6DA9B4D08506B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AE6055B2-CE27-4151-9A32-3B6E3ED23DFD}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8085" yWindow="2505" windowWidth="20460" windowHeight="11490" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
-    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
@@ -48,7 +47,7 @@
     <definedName name="wrn.Full_set." localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"T01";#N/A,#N/A,FALSE,"T01cont";#N/A,#N/A,FALSE,"T1.2a";#N/A,#N/A,FALSE,"T1.2b"}</definedName>
     <definedName name="wrn.Full_set." hidden="1">{#N/A,#N/A,FALSE,"T01";#N/A,#N/A,FALSE,"T01cont";#N/A,#N/A,FALSE,"T1.2a";#N/A,#N/A,FALSE,"T1.2b"}</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -240,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="469">
   <si>
     <t>BAADTbVT BAU Average Annual Dist Traveled by Vehicle Type</t>
   </si>
@@ -2372,6 +2371,9 @@
       </rPr>
       <t xml:space="preserve"> 2.2</t>
     </r>
+  </si>
+  <si>
+    <t>Correction _ New calcualtion based on BCDTRTSY</t>
   </si>
 </sst>
 </file>
@@ -4789,7 +4791,7 @@
     <xf numFmtId="177" fontId="62" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="735">
+  <cellXfs count="736">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5868,126 +5870,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="48" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyFont="1"/>
     <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6003,50 +5885,26 @@
     <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="62" fillId="0" borderId="0" xfId="156" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="63" fillId="0" borderId="0" xfId="156" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="62" fillId="0" borderId="0" xfId="156" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="62" fillId="0" borderId="0" xfId="156" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="49" fontId="62" fillId="0" borderId="0" xfId="156" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="63" fillId="0" borderId="0" xfId="156" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="63" fillId="0" borderId="0" xfId="156" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="62" fillId="0" borderId="0" xfId="156" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="63" fillId="0" borderId="0" xfId="156" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="62" fillId="0" borderId="0" xfId="156" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -6065,12 +5923,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="63" fillId="0" borderId="0" xfId="156" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6089,9 +5941,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="63" fillId="0" borderId="0" xfId="156" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
@@ -6359,15 +6208,6 @@
     <xf numFmtId="182" fontId="62" fillId="0" borderId="0" xfId="156" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="62" fillId="0" borderId="92" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="62" fillId="0" borderId="97" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="62" fillId="0" borderId="115" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6388,27 +6228,6 @@
     </xf>
     <xf numFmtId="183" fontId="62" fillId="0" borderId="0" xfId="156" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="62" fillId="0" borderId="94" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="62" fillId="0" borderId="103" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="63" fillId="0" borderId="93" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="64" fillId="0" borderId="116" xfId="156" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="64" fillId="0" borderId="117" xfId="156" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="66" fillId="0" borderId="116" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="66" fillId="0" borderId="1" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="64" fillId="0" borderId="116" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6418,9 +6237,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="62" fillId="0" borderId="118" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="64" fillId="0" borderId="119" xfId="156" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="62" fillId="0" borderId="116" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6433,37 +6249,10 @@
     <xf numFmtId="177" fontId="64" fillId="0" borderId="1" xfId="156" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="62" fillId="0" borderId="120" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="62" fillId="0" borderId="121" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="64" fillId="0" borderId="94" xfId="156" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="64" fillId="0" borderId="93" xfId="156" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="66" fillId="0" borderId="92" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="66" fillId="0" borderId="0" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="64" fillId="0" borderId="92" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="64" fillId="0" borderId="0" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="64" fillId="0" borderId="0" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="64" fillId="0" borderId="99" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="64" fillId="0" borderId="122" xfId="156" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="64" fillId="0" borderId="92" xfId="156" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6473,54 +6262,15 @@
     <xf numFmtId="177" fontId="64" fillId="0" borderId="103" xfId="156" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="62" fillId="0" borderId="110" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="62" fillId="0" borderId="123" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="64" fillId="0" borderId="105" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="64" fillId="0" borderId="12" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="64" fillId="0" borderId="111" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="66" fillId="0" borderId="0" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="62" fillId="0" borderId="99" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="64" fillId="0" borderId="113" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="64" fillId="0" borderId="12" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="64" fillId="0" borderId="111" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="64" fillId="0" borderId="105" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="64" fillId="0" borderId="111" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="66" fillId="0" borderId="94" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="66" fillId="0" borderId="103" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="66" fillId="0" borderId="93" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="66" fillId="0" borderId="94" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="66" fillId="0" borderId="103" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="62" fillId="0" borderId="94" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6529,56 +6279,11 @@
     <xf numFmtId="177" fontId="64" fillId="0" borderId="124" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="66" fillId="0" borderId="122" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="66" fillId="0" borderId="103" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="177" fontId="66" fillId="0" borderId="93" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="177" fontId="63" fillId="0" borderId="110" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="63" fillId="0" borderId="125" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="63" fillId="0" borderId="105" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="63" fillId="0" borderId="12" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="63" fillId="0" borderId="111" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="63" fillId="0" borderId="112" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="63" fillId="0" borderId="113" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="62" fillId="0" borderId="126" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="63" fillId="0" borderId="94" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="63" fillId="0" borderId="103" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="63" fillId="0" borderId="93" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="63" fillId="0" borderId="124" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="63" fillId="0" borderId="122" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="62" fillId="0" borderId="125" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="186" fontId="68" fillId="0" borderId="0" xfId="156" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -6589,6 +6294,304 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="70" fillId="0" borderId="0" xfId="156" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="63" fillId="0" borderId="93" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="63" fillId="0" borderId="103" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="63" fillId="0" borderId="94" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="63" fillId="0" borderId="111" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="63" fillId="0" borderId="12" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="63" fillId="0" borderId="105" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="63" fillId="0" borderId="124" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="63" fillId="0" borderId="112" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="66" fillId="0" borderId="93" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="66" fillId="0" borderId="103" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="66" fillId="0" borderId="94" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="111" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="12" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="105" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="66" fillId="0" borderId="103" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="66" fillId="0" borderId="94" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="66" fillId="0" borderId="0" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="66" fillId="0" borderId="92" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="66" fillId="0" borderId="1" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="66" fillId="0" borderId="116" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="93" xfId="156" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="94" xfId="156" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="117" xfId="156" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="116" xfId="156" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="99" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="0" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="113" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="122" xfId="156" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="119" xfId="156" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="63" fillId="0" borderId="125" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="62" fillId="0" borderId="123" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="62" fillId="0" borderId="121" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="62" fillId="0" borderId="97" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="62" fillId="0" borderId="92" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="63" fillId="0" borderId="0" xfId="156" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="62" fillId="0" borderId="125" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="62" fillId="0" borderId="126" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="111" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="105" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="63" fillId="0" borderId="110" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="62" fillId="0" borderId="110" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="62" fillId="0" borderId="120" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="63" fillId="0" borderId="122" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="63" fillId="0" borderId="113" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="66" fillId="0" borderId="122" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="63" fillId="0" borderId="93" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="62" fillId="0" borderId="103" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="62" fillId="0" borderId="94" xfId="156" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="63" fillId="0" borderId="0" xfId="156" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="63" fillId="0" borderId="0" xfId="156" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="63" fillId="0" borderId="0" xfId="156" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="156" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="158">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -9942,7 +9945,7 @@
             <v>43599</v>
           </cell>
           <cell r="D2" t="str">
-            <v>Core higher population</v>
+            <v>Current Policies</v>
           </cell>
         </row>
       </sheetData>
@@ -9958,7 +9961,7 @@
             <v>9.0664999999999996</v>
           </cell>
           <cell r="O4">
-            <v>9.0664999999999996</v>
+            <v>8.1523000000000003</v>
           </cell>
         </row>
         <row r="5">
@@ -9986,7 +9989,7 @@
         </row>
         <row r="56">
           <cell r="C56">
-            <v>0.02</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="58">
@@ -10016,7 +10019,7 @@
         </row>
         <row r="65">
           <cell r="C65">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="67">
@@ -10035,7 +10038,7 @@
             <v>0</v>
           </cell>
           <cell r="F69">
-            <v>0.21</v>
+            <v>0.23499999999999999</v>
           </cell>
         </row>
         <row r="70">
@@ -10063,7 +10066,7 @@
             <v>0</v>
           </cell>
           <cell r="F71">
-            <v>0.14000000000000001</v>
+            <v>0.12</v>
           </cell>
         </row>
         <row r="72">
@@ -10077,12 +10080,12 @@
             <v>0</v>
           </cell>
           <cell r="F72">
-            <v>8.5000000000000006E-2</v>
+            <v>0.06</v>
           </cell>
         </row>
         <row r="73">
           <cell r="F73">
-            <v>0.505</v>
+            <v>0.48499999999999999</v>
           </cell>
         </row>
         <row r="74">
@@ -10096,7 +10099,7 @@
             <v>0</v>
           </cell>
           <cell r="F74">
-            <v>0.06</v>
+            <v>0.11</v>
           </cell>
         </row>
         <row r="75">
@@ -10115,7 +10118,7 @@
         </row>
         <row r="76">
           <cell r="F76">
-            <v>6.9999999999999993E-2</v>
+            <v>0.12</v>
           </cell>
         </row>
         <row r="77">
@@ -10129,7 +10132,7 @@
             <v>0</v>
           </cell>
           <cell r="F77">
-            <v>0.42</v>
+            <v>0.39</v>
           </cell>
         </row>
         <row r="78">
@@ -10148,7 +10151,7 @@
         </row>
         <row r="79">
           <cell r="F79">
-            <v>0.99999999999999989</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="81">
@@ -10246,10 +10249,10 @@
             <v>0</v>
           </cell>
           <cell r="D90">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="E90">
-            <v>0.5</v>
+            <v>0</v>
           </cell>
           <cell r="F90">
             <v>0</v>
@@ -10258,7 +10261,7 @@
             <v>0</v>
           </cell>
           <cell r="H90">
-            <v>0.5</v>
+            <v>0</v>
           </cell>
           <cell r="I90">
             <v>0</v>
@@ -10292,7 +10295,7 @@
             <v>0</v>
           </cell>
           <cell r="D92">
-            <v>0.2</v>
+            <v>0</v>
           </cell>
           <cell r="E92">
             <v>0.05</v>
@@ -10466,7 +10469,7 @@
         </row>
         <row r="41">
           <cell r="E41">
-            <v>9066500</v>
+            <v>8152300</v>
           </cell>
           <cell r="I41">
             <v>8.8999999999999996E-2</v>
@@ -10485,7 +10488,7 @@
             <v>5363.8</v>
           </cell>
           <cell r="N42">
-            <v>7216.6808034134247</v>
+            <v>6633.325115323536</v>
           </cell>
         </row>
         <row r="43">
@@ -10574,10 +10577,10 @@
         </row>
         <row r="80">
           <cell r="T80">
-            <v>0</v>
+            <v>15515.353431599116</v>
           </cell>
           <cell r="W80">
-            <v>0.5</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="81">
@@ -10590,7 +10593,7 @@
         </row>
         <row r="82">
           <cell r="T82">
-            <v>10711.366362777053</v>
+            <v>0</v>
           </cell>
           <cell r="W82">
             <v>0.05</v>
@@ -10612,10 +10615,10 @@
       <sheetData sheetId="15">
         <row r="19">
           <cell r="R19">
-            <v>8.765039029278613E-3</v>
+            <v>0.30941026165375191</v>
           </cell>
           <cell r="S19">
-            <v>2.4347330636885038E-3</v>
+            <v>8.5947294903819971E-2</v>
           </cell>
         </row>
         <row r="94">
@@ -10632,7 +10635,7 @@
       <sheetData sheetId="16">
         <row r="6">
           <cell r="N6">
-            <v>26849.137275667843</v>
+            <v>24141.865307718166</v>
           </cell>
         </row>
       </sheetData>
@@ -10676,6 +10679,9 @@
             <v>37.258945704780558</v>
           </cell>
         </row>
+        <row r="26">
+          <cell r="K26"/>
+        </row>
         <row r="27">
           <cell r="K27">
             <v>60.849162639091837</v>
@@ -10685,6 +10691,9 @@
           <cell r="K28">
             <v>22</v>
           </cell>
+        </row>
+        <row r="29">
+          <cell r="K29"/>
         </row>
         <row r="30">
           <cell r="I30">
@@ -10730,19 +10739,6 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="T2.2 (a)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11868,10 +11864,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12801,6 +12797,111 @@
       </c>
       <c r="AK7" s="36"/>
     </row>
+    <row r="12" spans="1:37">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12812,10 +12913,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12823,7 +12924,8 @@
     <col min="1" max="4" width="16.5703125" style="11" customWidth="1"/>
     <col min="5" max="5" width="9" style="11" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="11"/>
+    <col min="7" max="36" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="10" customFormat="1">
@@ -13777,6 +13879,928 @@
         <v>5217.2036413762889</v>
       </c>
       <c r="AK7" s="36"/>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="49" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" s="10" customFormat="1">
+      <c r="A11" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="47">
+        <v>2016</v>
+      </c>
+      <c r="C11" s="47">
+        <v>2017</v>
+      </c>
+      <c r="D11" s="47">
+        <v>2018</v>
+      </c>
+      <c r="E11" s="47">
+        <v>2019</v>
+      </c>
+      <c r="F11" s="47">
+        <v>2020</v>
+      </c>
+      <c r="G11" s="47">
+        <v>2021</v>
+      </c>
+      <c r="H11" s="47">
+        <v>2022</v>
+      </c>
+      <c r="I11" s="47">
+        <v>2023</v>
+      </c>
+      <c r="J11" s="47">
+        <v>2024</v>
+      </c>
+      <c r="K11" s="47">
+        <v>2025</v>
+      </c>
+      <c r="L11" s="47">
+        <v>2026</v>
+      </c>
+      <c r="M11" s="47">
+        <v>2027</v>
+      </c>
+      <c r="N11" s="47">
+        <v>2028</v>
+      </c>
+      <c r="O11" s="47">
+        <v>2029</v>
+      </c>
+      <c r="P11" s="47">
+        <v>2030</v>
+      </c>
+      <c r="Q11" s="47">
+        <v>2031</v>
+      </c>
+      <c r="R11" s="47">
+        <v>2032</v>
+      </c>
+      <c r="S11" s="47">
+        <v>2033</v>
+      </c>
+      <c r="T11" s="47">
+        <v>2034</v>
+      </c>
+      <c r="U11" s="47">
+        <v>2035</v>
+      </c>
+      <c r="V11" s="47">
+        <v>2036</v>
+      </c>
+      <c r="W11" s="47">
+        <v>2037</v>
+      </c>
+      <c r="X11" s="47">
+        <v>2038</v>
+      </c>
+      <c r="Y11" s="47">
+        <v>2039</v>
+      </c>
+      <c r="Z11" s="47">
+        <v>2040</v>
+      </c>
+      <c r="AA11" s="47">
+        <v>2041</v>
+      </c>
+      <c r="AB11" s="47">
+        <v>2042</v>
+      </c>
+      <c r="AC11" s="47">
+        <v>2043</v>
+      </c>
+      <c r="AD11" s="47">
+        <v>2044</v>
+      </c>
+      <c r="AE11" s="47">
+        <v>2045</v>
+      </c>
+      <c r="AF11" s="47">
+        <v>2046</v>
+      </c>
+      <c r="AG11" s="47">
+        <v>2047</v>
+      </c>
+      <c r="AH11" s="47">
+        <v>2048</v>
+      </c>
+      <c r="AI11" s="47">
+        <v>2049</v>
+      </c>
+      <c r="AJ11" s="47">
+        <v>2050</v>
+      </c>
+      <c r="AK11" s="47"/>
+    </row>
+    <row r="12" spans="1:37" s="32" customFormat="1">
+      <c r="A12" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="735">
+        <v>6875.8288307593866</v>
+      </c>
+      <c r="C12" s="735">
+        <v>6822.8236544192869</v>
+      </c>
+      <c r="D12" s="735">
+        <v>6777.0063625512857</v>
+      </c>
+      <c r="E12" s="735">
+        <v>6732.8733002679191</v>
+      </c>
+      <c r="F12" s="735">
+        <v>6694.6371547793469</v>
+      </c>
+      <c r="G12" s="735">
+        <v>6656.1549747158333</v>
+      </c>
+      <c r="H12" s="735">
+        <v>6620.7109100825774</v>
+      </c>
+      <c r="I12" s="735">
+        <v>6587.5942396883383</v>
+      </c>
+      <c r="J12" s="735">
+        <v>6554.3345631258335</v>
+      </c>
+      <c r="K12" s="735">
+        <v>6522.3693096652987</v>
+      </c>
+      <c r="L12" s="735">
+        <v>6490.8218778990531</v>
+      </c>
+      <c r="M12" s="735">
+        <v>6460.8142619240825</v>
+      </c>
+      <c r="N12" s="735">
+        <v>6434.4493510354105</v>
+      </c>
+      <c r="O12" s="735">
+        <v>6410.5035926717756</v>
+      </c>
+      <c r="P12" s="735">
+        <v>6387.7267259155424</v>
+      </c>
+      <c r="Q12" s="735">
+        <v>6366.7419566225226</v>
+      </c>
+      <c r="R12" s="735">
+        <v>6347.6329275880871</v>
+      </c>
+      <c r="S12" s="735">
+        <v>6330.7892713040046</v>
+      </c>
+      <c r="T12" s="735">
+        <v>6314.888955103288</v>
+      </c>
+      <c r="U12" s="735">
+        <v>6299.050439830854</v>
+      </c>
+      <c r="V12" s="735">
+        <v>6283.6755866767207</v>
+      </c>
+      <c r="W12" s="735">
+        <v>6268.6215850599456</v>
+      </c>
+      <c r="X12" s="735">
+        <v>6253.5221747182686</v>
+      </c>
+      <c r="Y12" s="735">
+        <v>6237.7978712517652</v>
+      </c>
+      <c r="Z12" s="735">
+        <v>6221.9580442099386</v>
+      </c>
+      <c r="AA12" s="735">
+        <v>6205.6516153038137</v>
+      </c>
+      <c r="AB12" s="735">
+        <v>6189.1450529159938</v>
+      </c>
+      <c r="AC12" s="735">
+        <v>6173.3007210455635</v>
+      </c>
+      <c r="AD12" s="735">
+        <v>6157.8624424529808</v>
+      </c>
+      <c r="AE12" s="735">
+        <v>6142.4161309307447</v>
+      </c>
+      <c r="AF12" s="735">
+        <v>6127.1527949473002</v>
+      </c>
+      <c r="AG12" s="735">
+        <v>6111.4994116247653</v>
+      </c>
+      <c r="AH12" s="735">
+        <v>6096.2960085091108</v>
+      </c>
+      <c r="AI12" s="735">
+        <v>6081.0219242880867</v>
+      </c>
+      <c r="AJ12" s="735">
+        <v>6065.7533698792768</v>
+      </c>
+      <c r="AK12" s="36"/>
+    </row>
+    <row r="13" spans="1:37" s="32" customFormat="1">
+      <c r="A13" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!A71</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!B71</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!C71</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!D71</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!E71</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!F71</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!G71</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!H71</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!I71</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!J71</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!K71</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!L71</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!M71</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!N71</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!O71</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!P71</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!Q71</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!R71</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!S71</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!T71</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!U71</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!V71</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!W71</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!X71</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!Y71</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!Z71</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!AA71</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!AB71</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!AC71</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!AD71</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!AE71</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!AF71</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!AG71</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!AH71</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="77">
+        <f>'HK Passenger'!$G$5*'HK Passenger'!AI71</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="36"/>
+    </row>
+    <row r="14" spans="1:37" s="32" customFormat="1">
+      <c r="A14" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="36">
+        <v>0</v>
+      </c>
+      <c r="C14" s="36">
+        <v>0</v>
+      </c>
+      <c r="D14" s="36">
+        <v>0</v>
+      </c>
+      <c r="E14" s="36">
+        <v>0</v>
+      </c>
+      <c r="F14" s="36">
+        <v>0</v>
+      </c>
+      <c r="G14" s="36">
+        <v>0</v>
+      </c>
+      <c r="H14" s="36">
+        <v>0</v>
+      </c>
+      <c r="I14" s="36">
+        <v>0</v>
+      </c>
+      <c r="J14" s="36">
+        <v>0</v>
+      </c>
+      <c r="K14" s="36">
+        <v>0</v>
+      </c>
+      <c r="L14" s="36">
+        <v>0</v>
+      </c>
+      <c r="M14" s="36">
+        <v>0</v>
+      </c>
+      <c r="N14" s="36">
+        <v>0</v>
+      </c>
+      <c r="O14" s="36">
+        <v>0</v>
+      </c>
+      <c r="P14" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="36">
+        <v>0</v>
+      </c>
+      <c r="R14" s="36">
+        <v>0</v>
+      </c>
+      <c r="S14" s="36">
+        <v>0</v>
+      </c>
+      <c r="T14" s="36">
+        <v>0</v>
+      </c>
+      <c r="U14" s="36">
+        <v>0</v>
+      </c>
+      <c r="V14" s="36">
+        <v>0</v>
+      </c>
+      <c r="W14" s="36">
+        <v>0</v>
+      </c>
+      <c r="X14" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="36">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="36"/>
+    </row>
+    <row r="15" spans="1:37" s="32" customFormat="1">
+      <c r="A15" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="36">
+        <f>'HK Passenger'!G17</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="36">
+        <f>B15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="36">
+        <f>C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="36">
+        <f t="shared" ref="E15:E16" si="2">D15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="36">
+        <f t="shared" ref="F15:F16" si="3">E15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="36">
+        <f t="shared" ref="G15:G16" si="4">F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="36">
+        <f t="shared" ref="H15:H16" si="5">G15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="36">
+        <f t="shared" ref="I15:I16" si="6">H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="36">
+        <f t="shared" ref="J15:J16" si="7">I15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="36">
+        <f t="shared" ref="K15:K16" si="8">J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="36">
+        <f t="shared" ref="L15:L16" si="9">K15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="36">
+        <f t="shared" ref="M15:M16" si="10">L15</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="36">
+        <f t="shared" ref="N15:N16" si="11">M15</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="36">
+        <f t="shared" ref="O15:O16" si="12">N15</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="36">
+        <f t="shared" ref="P15:P16" si="13">O15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="36">
+        <f t="shared" ref="Q15:Q16" si="14">P15</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="36">
+        <f t="shared" ref="R15:R16" si="15">Q15</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="36">
+        <f t="shared" ref="S15:S16" si="16">R15</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="36">
+        <f t="shared" ref="T15:T16" si="17">S15</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="36">
+        <f t="shared" ref="U15:U16" si="18">T15</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="36">
+        <f t="shared" ref="V15:V16" si="19">U15</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="36">
+        <f t="shared" ref="W15:W16" si="20">V15</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="36">
+        <f t="shared" ref="X15:X16" si="21">W15</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="36">
+        <f t="shared" ref="Y15:Y16" si="22">X15</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="36">
+        <f t="shared" ref="Z15:Z16" si="23">Y15</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="36">
+        <f t="shared" ref="AA15:AA16" si="24">Z15</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="36">
+        <f t="shared" ref="AB15:AB16" si="25">AA15</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="36">
+        <f t="shared" ref="AC15:AC16" si="26">AB15</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="36">
+        <f t="shared" ref="AD15:AD16" si="27">AC15</f>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="36">
+        <f t="shared" ref="AE15:AE16" si="28">AD15</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="36">
+        <f t="shared" ref="AF15:AF16" si="29">AE15</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="36">
+        <f t="shared" ref="AG15:AG16" si="30">AF15</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="36">
+        <f t="shared" ref="AH15:AH16" si="31">AG15</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="36">
+        <f t="shared" ref="AI15:AI16" si="32">AH15</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="36">
+        <f t="shared" ref="AJ15:AJ16" si="33">AI15</f>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="36"/>
+    </row>
+    <row r="16" spans="1:37" s="32" customFormat="1">
+      <c r="A16" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="36">
+        <f>C16</f>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="C16" s="36">
+        <f>'HK Passenger'!G21</f>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="D16" s="36">
+        <f>C16</f>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="E16" s="36">
+        <f t="shared" si="2"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="F16" s="36">
+        <f t="shared" si="3"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="G16" s="36">
+        <f t="shared" si="4"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="H16" s="36">
+        <f t="shared" si="5"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="I16" s="36">
+        <f t="shared" si="6"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="J16" s="36">
+        <f t="shared" si="7"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="K16" s="36">
+        <f t="shared" si="8"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="L16" s="36">
+        <f t="shared" si="9"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="M16" s="36">
+        <f t="shared" si="10"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="N16" s="36">
+        <f t="shared" si="11"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="O16" s="36">
+        <f t="shared" si="12"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="P16" s="36">
+        <f t="shared" si="13"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="Q16" s="36">
+        <f t="shared" si="14"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="R16" s="36">
+        <f t="shared" si="15"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="S16" s="36">
+        <f t="shared" si="16"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="T16" s="36">
+        <f t="shared" si="17"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="U16" s="36">
+        <f t="shared" si="18"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="V16" s="36">
+        <f t="shared" si="19"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="W16" s="36">
+        <f t="shared" si="20"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="X16" s="36">
+        <f t="shared" si="21"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="Y16" s="36">
+        <f t="shared" si="22"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="Z16" s="36">
+        <f t="shared" si="23"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="AA16" s="36">
+        <f t="shared" si="24"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="AB16" s="36">
+        <f t="shared" si="25"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="AC16" s="36">
+        <f t="shared" si="26"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="AD16" s="36">
+        <f t="shared" si="27"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="AE16" s="36">
+        <f t="shared" si="28"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="AF16" s="36">
+        <f t="shared" si="29"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="AG16" s="36">
+        <f t="shared" si="30"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="AH16" s="36">
+        <f t="shared" si="31"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="AI16" s="36">
+        <f t="shared" si="32"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="AJ16" s="36">
+        <f t="shared" si="33"/>
+        <v>10980.273708330911</v>
+      </c>
+      <c r="AK16" s="36"/>
+    </row>
+    <row r="17" spans="1:37" s="32" customFormat="1">
+      <c r="A17" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!A71</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!B71</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!C71</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!D71</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!E71</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!F71</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!G71</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!H71</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!I71</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!J71</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!K71</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!L71</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!M71</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!N71</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!O71</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!P71</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!Q71</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!R71</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!S71</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!T71</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!U71</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!V71</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!W71</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!X71</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!Y71</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!Z71</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!AA71</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!AB71</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!AC71</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!AD71</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!AE71</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!AF71</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!AG71</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!AH71</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="36">
+        <f>'HK Passenger'!$G$6*'HK Passenger'!AI71</f>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14516,7 +15540,7 @@
   <dimension ref="A1:AI61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14574,7 +15598,7 @@
         <v>9616.2544553201496</v>
       </c>
       <c r="G2" s="72">
-        <f t="shared" ref="G2:G8" si="1">E2/C2</f>
+        <f>E2/C2</f>
         <v>5975.2634934775924</v>
       </c>
     </row>
@@ -14599,7 +15623,7 @@
         <v>132190.87502755126</v>
       </c>
       <c r="G3" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G2:G8" si="1">E3/C3</f>
         <v>82139.60158739255</v>
       </c>
     </row>
@@ -14625,7 +15649,7 @@
         <v>13512.992723234149</v>
       </c>
       <c r="G4" s="72">
-        <f t="shared" si="1"/>
+        <f>E4/C4</f>
         <v>8396.5843959233298</v>
       </c>
     </row>
@@ -20330,7 +21354,7 @@
   </sheetPr>
   <dimension ref="A1:BH92"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -20387,7 +21411,7 @@
       </c>
       <c r="F1" s="81" t="str">
         <f>+[3]FRAMEWORK!D2</f>
-        <v>Core higher population</v>
+        <v>Current Policies</v>
       </c>
       <c r="G1" s="82"/>
       <c r="H1" s="83" t="s">
@@ -20434,7 +21458,7 @@
       </c>
       <c r="AA1" s="81" t="str">
         <f>+$F$1</f>
-        <v>Core higher population</v>
+        <v>Current Policies</v>
       </c>
       <c r="AC1" s="83" t="s">
         <v>220</v>
@@ -20586,32 +21610,32 @@
       <c r="AL4" s="92"/>
     </row>
     <row r="5" spans="1:48" s="49" customFormat="1" ht="33.6" customHeight="1" outlineLevel="1">
-      <c r="A5" s="489" t="s">
+      <c r="A5" s="664" t="s">
         <v>228</v>
       </c>
-      <c r="B5" s="490"/>
+      <c r="B5" s="665"/>
       <c r="C5" s="100"/>
-      <c r="D5" s="497" t="s">
+      <c r="D5" s="672" t="s">
         <v>229</v>
       </c>
-      <c r="E5" s="498"/>
+      <c r="E5" s="673"/>
       <c r="F5" s="101"/>
-      <c r="G5" s="493" t="s">
+      <c r="G5" s="668" t="s">
         <v>230</v>
       </c>
-      <c r="H5" s="494"/>
+      <c r="H5" s="669"/>
       <c r="I5" s="101"/>
       <c r="J5" s="101"/>
-      <c r="K5" s="489" t="s">
+      <c r="K5" s="664" t="s">
         <v>231</v>
       </c>
-      <c r="L5" s="490"/>
+      <c r="L5" s="665"/>
       <c r="M5" s="101"/>
       <c r="N5" s="101"/>
-      <c r="O5" s="493" t="s">
+      <c r="O5" s="668" t="s">
         <v>232</v>
       </c>
-      <c r="P5" s="494"/>
+      <c r="P5" s="669"/>
       <c r="Q5" s="101"/>
       <c r="R5" s="101"/>
       <c r="S5" s="101"/>
@@ -20634,32 +21658,32 @@
       <c r="AJ5" s="101"/>
     </row>
     <row r="6" spans="1:48" s="49" customFormat="1" ht="33.6" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="A6" s="491"/>
-      <c r="B6" s="492"/>
+      <c r="A6" s="666"/>
+      <c r="B6" s="667"/>
       <c r="C6" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="499"/>
-      <c r="E6" s="500"/>
+      <c r="D6" s="674"/>
+      <c r="E6" s="675"/>
       <c r="F6" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="G6" s="495"/>
-      <c r="H6" s="496"/>
-      <c r="I6" s="501" t="s">
+      <c r="G6" s="670"/>
+      <c r="H6" s="671"/>
+      <c r="I6" s="646" t="s">
         <v>235</v>
       </c>
-      <c r="J6" s="501"/>
-      <c r="K6" s="491"/>
-      <c r="L6" s="492"/>
-      <c r="M6" s="501" t="s">
+      <c r="J6" s="646"/>
+      <c r="K6" s="666"/>
+      <c r="L6" s="667"/>
+      <c r="M6" s="646" t="s">
         <v>236</v>
       </c>
-      <c r="N6" s="501"/>
-      <c r="O6" s="495"/>
-      <c r="P6" s="496"/>
-      <c r="Q6" s="486"/>
-      <c r="R6" s="486"/>
+      <c r="N6" s="646"/>
+      <c r="O6" s="670"/>
+      <c r="P6" s="671"/>
+      <c r="Q6" s="661"/>
+      <c r="R6" s="661"/>
       <c r="S6" s="103"/>
       <c r="T6" s="103"/>
       <c r="U6" s="90"/>
@@ -20677,7 +21701,7 @@
       <c r="AG6" s="101"/>
     </row>
     <row r="7" spans="1:48" s="49" customFormat="1" ht="33.6" customHeight="1" outlineLevel="1">
-      <c r="A7" s="487" t="s">
+      <c r="A7" s="662" t="s">
         <v>237</v>
       </c>
       <c r="B7" s="104"/>
@@ -20687,16 +21711,16 @@
       <c r="F7" s="105"/>
       <c r="G7" s="101"/>
       <c r="H7" s="101"/>
-      <c r="I7" s="501"/>
-      <c r="J7" s="501"/>
+      <c r="I7" s="646"/>
+      <c r="J7" s="646"/>
       <c r="K7" s="101"/>
       <c r="L7" s="101"/>
-      <c r="M7" s="501"/>
-      <c r="N7" s="501"/>
+      <c r="M7" s="646"/>
+      <c r="N7" s="646"/>
       <c r="O7" s="101"/>
       <c r="P7" s="101"/>
-      <c r="Q7" s="486"/>
-      <c r="R7" s="486"/>
+      <c r="Q7" s="661"/>
+      <c r="R7" s="661"/>
       <c r="S7" s="103"/>
       <c r="T7" s="103"/>
       <c r="U7" s="90"/>
@@ -20714,22 +21738,22 @@
       <c r="AG7" s="101"/>
     </row>
     <row r="8" spans="1:48" s="49" customFormat="1" ht="43.5" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="A8" s="487"/>
+      <c r="A8" s="662"/>
       <c r="B8" s="104"/>
       <c r="C8" s="100"/>
       <c r="D8" s="101"/>
       <c r="E8" s="101"/>
       <c r="F8" s="101"/>
       <c r="G8" s="101"/>
-      <c r="H8" s="488" t="s">
+      <c r="H8" s="663" t="s">
         <v>238</v>
       </c>
-      <c r="I8" s="488"/>
+      <c r="I8" s="663"/>
       <c r="J8" s="101"/>
       <c r="K8" s="101"/>
       <c r="L8" s="101"/>
-      <c r="M8" s="501"/>
-      <c r="N8" s="501"/>
+      <c r="M8" s="646"/>
+      <c r="N8" s="646"/>
       <c r="O8" s="101"/>
       <c r="P8" s="101"/>
       <c r="Q8" s="101"/>
@@ -20751,27 +21775,27 @@
       <c r="AG8" s="101"/>
     </row>
     <row r="9" spans="1:48" s="49" customFormat="1" ht="33.6" customHeight="1" outlineLevel="1">
-      <c r="A9" s="489" t="s">
+      <c r="A9" s="664" t="s">
         <v>239</v>
       </c>
-      <c r="B9" s="490"/>
+      <c r="B9" s="665"/>
       <c r="C9" s="101"/>
-      <c r="D9" s="489" t="s">
+      <c r="D9" s="664" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="490"/>
+      <c r="E9" s="665"/>
       <c r="F9" s="101"/>
       <c r="G9" s="101"/>
-      <c r="H9" s="488"/>
-      <c r="I9" s="488"/>
+      <c r="H9" s="663"/>
+      <c r="I9" s="663"/>
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
       <c r="M9" s="101"/>
       <c r="N9" s="101"/>
-      <c r="O9" s="493" t="s">
+      <c r="O9" s="668" t="s">
         <v>241</v>
       </c>
-      <c r="P9" s="494"/>
+      <c r="P9" s="669"/>
       <c r="Q9" s="101"/>
       <c r="R9" s="101"/>
       <c r="S9" s="101"/>
@@ -20791,11 +21815,11 @@
       <c r="AG9" s="101"/>
     </row>
     <row r="10" spans="1:48" s="49" customFormat="1" ht="33.6" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="A10" s="491"/>
-      <c r="B10" s="492"/>
+      <c r="A10" s="666"/>
+      <c r="B10" s="667"/>
       <c r="C10" s="101"/>
-      <c r="D10" s="491"/>
-      <c r="E10" s="492"/>
+      <c r="D10" s="666"/>
+      <c r="E10" s="667"/>
       <c r="F10" s="101"/>
       <c r="G10" s="101"/>
       <c r="H10" s="101"/>
@@ -20805,8 +21829,8 @@
       <c r="L10" s="101"/>
       <c r="M10" s="101"/>
       <c r="N10" s="101"/>
-      <c r="O10" s="495"/>
-      <c r="P10" s="496"/>
+      <c r="O10" s="670"/>
+      <c r="P10" s="671"/>
       <c r="Q10" s="101"/>
       <c r="R10" s="101"/>
       <c r="S10" s="101"/>
@@ -20972,14 +21996,14 @@
       <c r="AG14" s="92"/>
     </row>
     <row r="15" spans="1:48" outlineLevel="1">
-      <c r="A15" s="523" t="s">
+      <c r="A15" s="643" t="s">
         <v>246</v>
       </c>
-      <c r="B15" s="524"/>
-      <c r="C15" s="524"/>
-      <c r="D15" s="524"/>
-      <c r="E15" s="524"/>
-      <c r="F15" s="525"/>
+      <c r="B15" s="644"/>
+      <c r="C15" s="644"/>
+      <c r="D15" s="644"/>
+      <c r="E15" s="644"/>
+      <c r="F15" s="645"/>
       <c r="G15" s="92"/>
       <c r="H15">
         <v>1</v>
@@ -21007,12 +22031,12 @@
       <c r="AG15" s="92"/>
     </row>
     <row r="16" spans="1:48" outlineLevel="1">
-      <c r="A16" s="523"/>
-      <c r="B16" s="524"/>
-      <c r="C16" s="524"/>
-      <c r="D16" s="524"/>
-      <c r="E16" s="524"/>
-      <c r="F16" s="525"/>
+      <c r="A16" s="643"/>
+      <c r="B16" s="644"/>
+      <c r="C16" s="644"/>
+      <c r="D16" s="644"/>
+      <c r="E16" s="644"/>
+      <c r="F16" s="645"/>
       <c r="G16" s="92"/>
       <c r="H16">
         <v>2</v>
@@ -21126,8 +22150,8 @@
         <v>253</v>
       </c>
       <c r="J19" s="92"/>
-      <c r="O19" s="501"/>
-      <c r="P19" s="501"/>
+      <c r="O19" s="646"/>
+      <c r="P19" s="646"/>
       <c r="Q19" s="92"/>
       <c r="R19" s="92"/>
       <c r="S19" s="92"/>
@@ -21163,8 +22187,8 @@
         <v>255</v>
       </c>
       <c r="J20" s="92"/>
-      <c r="O20" s="501"/>
-      <c r="P20" s="501"/>
+      <c r="O20" s="646"/>
+      <c r="P20" s="646"/>
       <c r="Q20" s="92"/>
       <c r="R20" s="92"/>
       <c r="S20" s="92"/>
@@ -21198,8 +22222,8 @@
         <v>256</v>
       </c>
       <c r="J21" s="92"/>
-      <c r="O21" s="501"/>
-      <c r="P21" s="501"/>
+      <c r="O21" s="646"/>
+      <c r="P21" s="646"/>
       <c r="Q21" s="92"/>
       <c r="R21" s="92"/>
       <c r="S21" s="92"/>
@@ -21290,14 +22314,14 @@
       <c r="AG23" s="92"/>
     </row>
     <row r="24" spans="1:49" outlineLevel="1">
-      <c r="A24" s="502" t="s">
+      <c r="A24" s="647" t="s">
         <v>261</v>
       </c>
-      <c r="B24" s="503"/>
-      <c r="C24" s="503"/>
-      <c r="D24" s="503"/>
-      <c r="E24" s="503"/>
-      <c r="F24" s="504"/>
+      <c r="B24" s="648"/>
+      <c r="C24" s="648"/>
+      <c r="D24" s="648"/>
+      <c r="E24" s="648"/>
+      <c r="F24" s="649"/>
       <c r="G24" s="92"/>
       <c r="H24" s="92">
         <v>10</v>
@@ -21567,16 +22591,16 @@
       <c r="D31" s="142"/>
       <c r="E31" s="142"/>
       <c r="F31" s="142"/>
-      <c r="G31" s="505">
+      <c r="G31" s="650">
         <v>2050</v>
       </c>
-      <c r="H31" s="506"/>
-      <c r="I31" s="506"/>
-      <c r="J31" s="506"/>
-      <c r="K31" s="506"/>
-      <c r="L31" s="506"/>
-      <c r="M31" s="506"/>
-      <c r="N31" s="507"/>
+      <c r="H31" s="651"/>
+      <c r="I31" s="651"/>
+      <c r="J31" s="651"/>
+      <c r="K31" s="651"/>
+      <c r="L31" s="651"/>
+      <c r="M31" s="651"/>
+      <c r="N31" s="652"/>
       <c r="O31" s="143"/>
       <c r="P31" s="144" t="s">
         <v>276</v>
@@ -21729,23 +22753,23 @@
       </c>
       <c r="J34" s="178">
         <f>(1+((L34-D34)/D34))*B34/(1+'[3]Key parameters rpt'!C69)</f>
-        <v>5394.183508489642</v>
+        <v>5975.2042423798703</v>
       </c>
       <c r="K34" s="162">
         <f>+L34*1000000/J34</f>
-        <v>75352.941176470587</v>
+        <v>75352.941176470602</v>
       </c>
       <c r="L34" s="128">
         <f>(1+((N34-F34)/F34))*D34*(1+'[3]Key parameters rpt'!E69)/(1+'[3]Key parameters rpt'!D69)</f>
-        <v>406.46759261030775</v>
+        <v>450.24921379344789</v>
       </c>
       <c r="M34" s="179">
         <f>'[3]Key parameters rpt'!F69</f>
-        <v>0.21</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="N34" s="180">
         <f>$N$44*'[3]Key parameters rpt'!F69</f>
-        <v>3608.3404017067123</v>
+        <v>3997.0035951308482</v>
       </c>
       <c r="O34" s="153" t="s">
         <v>296</v>
@@ -21796,15 +22820,15 @@
       </c>
       <c r="J35" s="178">
         <f>(1+((L35-D35)/D35))*B35/(1+'[3]Key parameters rpt'!C70)</f>
-        <v>24764.071880101204</v>
+        <v>24513.229217846081</v>
       </c>
       <c r="K35" s="162">
         <f>+L35*1000000/J35</f>
-        <v>5881.1234487263246</v>
+        <v>5881.1234487263237</v>
       </c>
       <c r="L35" s="128">
         <f>(1+((N35-F35)/F35))*D35*(1+'[3]Key parameters rpt'!E70)/(1+'[3]Key parameters rpt'!D70)</f>
-        <v>145.64056382000737</v>
+        <v>144.16532715707783</v>
       </c>
       <c r="M35" s="179">
         <f>'[3]Key parameters rpt'!F70</f>
@@ -21812,7 +22836,7 @@
       </c>
       <c r="N35" s="180">
         <f>$N$44*'[3]Key parameters rpt'!F70</f>
-        <v>1202.7801339022376</v>
+        <v>1190.5968155708913</v>
       </c>
       <c r="O35" s="185" t="s">
         <v>298</v>
@@ -21831,11 +22855,11 @@
       </c>
       <c r="S35" s="188">
         <f>$S$38*T35</f>
-        <v>940676.86438809265</v>
+        <v>725554.7</v>
       </c>
       <c r="T35" s="163">
         <f>IF($U$35=$R$35,'[3]Population and GDP'!$I$6,IF('[3]Key parameters rpt'!$O$4='[3]Key parameters rpt'!$I$4,'[3]Key parameters rpt'!R113,'[3]Population and GDP'!I41))</f>
-        <v>0.10375303197353915</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="U35" s="189">
         <f>'[3]Key parameters rpt'!C51</f>
@@ -21883,23 +22907,23 @@
       </c>
       <c r="J36" s="178">
         <f>(1+((L36-D36)/D36))*B36/(1+'[3]Key parameters rpt'!C71)</f>
-        <v>9821.0216972939725</v>
+        <v>8332.7499792490144</v>
       </c>
       <c r="K36" s="162">
         <f>+L36*1000000/J36</f>
-        <v>43756.87583444592</v>
+        <v>43756.875834445927</v>
       </c>
       <c r="L36" s="128">
         <f>(1+((N36-F36)/F36))*D36*(1+'[3]Key parameters rpt'!E71)/(1+'[3]Key parameters rpt'!D71)</f>
-        <v>429.7372269758917</v>
+        <v>364.61510620148096</v>
       </c>
       <c r="M36" s="179">
         <f>'[3]Key parameters rpt'!F71</f>
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="N36" s="180">
         <f>$N$44*'[3]Key parameters rpt'!F71</f>
-        <v>2405.5602678044752</v>
+        <v>2041.0231124072418</v>
       </c>
       <c r="O36" s="185" t="s">
         <v>300</v>
@@ -21918,11 +22942,11 @@
       </c>
       <c r="S36" s="188">
         <f>$S$38*T36</f>
-        <v>5587283.1047409037</v>
+        <v>4809857</v>
       </c>
       <c r="T36" s="163">
         <f>IF($U$35=$R$35,Q36,IF('[3]Key parameters rpt'!$O$4='[3]Key parameters rpt'!$I$4,'[3]Key parameters rpt'!R114,'[3]Population and GDP'!J41))</f>
-        <v>0.61625578831312011</v>
+        <v>0.59</v>
       </c>
       <c r="U36" s="189">
         <f>'[3]Key parameters rpt'!C52</f>
@@ -21971,7 +22995,7 @@
       </c>
       <c r="J37" s="178">
         <f>(1+((L37-D37)/D37))*B37/(1+'[3]Key parameters rpt'!C72)</f>
-        <v>28429.323508820653</v>
+        <v>19864.485473503766</v>
       </c>
       <c r="K37" s="162">
         <f>+L37*1000000/J37</f>
@@ -21979,15 +23003,15 @@
       </c>
       <c r="L37" s="128">
         <f>(1+((N37-F37)/F37))*D37*(1+'[3]Key parameters rpt'!E72)/(1+'[3]Key parameters rpt'!D72)</f>
-        <v>4235.0837556605647</v>
+        <v>2959.1896450609906</v>
       </c>
       <c r="M37" s="179">
         <f>'[3]Key parameters rpt'!F72</f>
-        <v>8.5000000000000006E-2</v>
+        <v>0.06</v>
       </c>
       <c r="N37" s="180">
         <f>$N$44*'[3]Key parameters rpt'!F72</f>
-        <v>1460.5187340241455</v>
+        <v>1020.5115562036209</v>
       </c>
       <c r="O37" s="190" t="s">
         <v>302</v>
@@ -22006,11 +23030,11 @@
       </c>
       <c r="S37" s="188">
         <f>$S$38*T37</f>
-        <v>2538540.0308710034</v>
+        <v>4809857</v>
       </c>
       <c r="T37" s="163">
         <f>IF($U$35=$R$35,Q37,IF('[3]Key parameters rpt'!$O$4='[3]Key parameters rpt'!$I$4,'[3]Key parameters rpt'!R115,'[3]Population and GDP'!J41))</f>
-        <v>0.2799911797133407</v>
+        <v>0.59</v>
       </c>
       <c r="U37" s="189">
         <f>'[3]Key parameters rpt'!C53</f>
@@ -22049,20 +23073,20 @@
       <c r="I38" s="197"/>
       <c r="J38" s="198">
         <f>SUM(J33:J37)</f>
-        <v>68408.600594705465</v>
+        <v>58685.668912978734</v>
       </c>
       <c r="K38" s="193"/>
       <c r="L38" s="198">
         <f>SUM(L33:L37)</f>
-        <v>5216.9291390667713</v>
+        <v>3918.2192922129971</v>
       </c>
       <c r="M38" s="199">
         <f>'[3]Key parameters rpt'!F73</f>
-        <v>0.505</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="N38" s="200">
         <f>SUM(N33:N37)</f>
-        <v>8677.1995374375711</v>
+        <v>8249.1350793126021</v>
       </c>
       <c r="O38" s="185" t="s">
         <v>88</v>
@@ -22081,15 +23105,15 @@
       </c>
       <c r="S38" s="204">
         <f>'[3]Population and GDP'!E41</f>
-        <v>9066500</v>
+        <v>8152300</v>
       </c>
       <c r="T38" s="202">
         <f>SUM(T35:T37)</f>
-        <v>1</v>
+        <v>1.2689999999999999</v>
       </c>
       <c r="U38" s="205">
         <f>+'[3]Key parameters rpt'!C51*T35+'[3]Key parameters rpt'!C52*T36+'[3]Key parameters rpt'!C53*T37</f>
-        <v>0.7593781697905182</v>
+        <v>0.8526999999999999</v>
       </c>
       <c r="W38" s="52"/>
       <c r="X38" s="92"/>
@@ -22135,7 +23159,7 @@
       </c>
       <c r="J39" s="178">
         <f>(1+((L39-D39)/D39))*B39/(1+'[3]Key parameters rpt'!C74)</f>
-        <v>393669.8447201415</v>
+        <v>714417.45021788334</v>
       </c>
       <c r="K39" s="162">
         <f>+L39*1000000/J39</f>
@@ -22143,15 +23167,15 @@
       </c>
       <c r="L39" s="128">
         <f>(1+((N39-F39)/F39))*D39*(1+'[3]Key parameters rpt'!E74)/(1+'[3]Key parameters rpt'!D74)</f>
-        <v>4356.818988615837</v>
+        <v>7906.5936968591304</v>
       </c>
       <c r="M39" s="208">
         <f>'[3]Key parameters rpt'!F74</f>
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="N39" s="180">
         <f>N44*'[3]Key parameters rpt'!F74</f>
-        <v>1030.954400487632</v>
+        <v>1870.9378530399717</v>
       </c>
       <c r="O39" s="153" t="s">
         <v>305</v>
@@ -22203,7 +23227,7 @@
       </c>
       <c r="J40" s="178">
         <f>(1+((L40-D40)/D40))*B40/(1+'[3]Key parameters rpt'!C75)</f>
-        <v>65611.640786690332</v>
+        <v>64947.040928898554</v>
       </c>
       <c r="K40" s="162">
         <f>+L40*1000000/J40</f>
@@ -22211,7 +23235,7 @@
       </c>
       <c r="L40" s="128">
         <f>(1+((N40-F40)/F40))*D40*(1+'[3]Key parameters rpt'!E75)/(1+'[3]Key parameters rpt'!D75)</f>
-        <v>297.05120770372491</v>
+        <v>294.04228751776884</v>
       </c>
       <c r="M40" s="208">
         <f>'[3]Key parameters rpt'!F75</f>
@@ -22219,7 +23243,7 @@
       </c>
       <c r="N40" s="212">
         <f>N44*'[3]Key parameters rpt'!F75</f>
-        <v>171.82573341460534</v>
+        <v>170.08525936727017</v>
       </c>
       <c r="O40" s="213" t="s">
         <v>309</v>
@@ -22264,20 +23288,20 @@
       <c r="I41" s="197"/>
       <c r="J41" s="198">
         <f>SUM(J39:J40)</f>
-        <v>459281.48550683184</v>
+        <v>779364.49114678195</v>
       </c>
       <c r="K41" s="193"/>
       <c r="L41" s="198">
         <f>SUM(L39:L40)</f>
-        <v>4653.8701963195617</v>
+        <v>8200.6359843768987</v>
       </c>
       <c r="M41" s="199">
         <f>SUM(M39:M40)</f>
-        <v>6.9999999999999993E-2</v>
+        <v>0.12</v>
       </c>
       <c r="N41" s="200">
         <f>SUM(N39:N40)</f>
-        <v>1202.7801339022374</v>
+        <v>2041.023112407242</v>
       </c>
       <c r="O41" s="220" t="s">
         <v>311</v>
@@ -22322,22 +23346,22 @@
       <c r="K42" s="162"/>
       <c r="L42" s="128">
         <f>(1+((N42-F42)/F42))*D42*(1+'[3]Key parameters rpt'!E77)/(1+'[3]Key parameters rpt'!D77)</f>
-        <v>433.57669730131556</v>
+        <v>398.52880762960979</v>
       </c>
       <c r="M42" s="179">
         <f>'[3]Key parameters rpt'!F77</f>
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="N42" s="180">
         <f>$N$44*'[3]Key parameters rpt'!F77</f>
-        <v>7216.6808034134247</v>
+        <v>6633.325115323536</v>
       </c>
       <c r="O42" s="224" t="s">
         <v>313</v>
       </c>
       <c r="U42" s="225">
         <f>-1+S38/P38</f>
-        <v>0.27395739658273377</v>
+        <v>0.14550078687050361</v>
       </c>
       <c r="Y42" s="92"/>
     </row>
@@ -22377,7 +23401,7 @@
       <c r="K43" s="162"/>
       <c r="L43" s="128">
         <f>(1+((N43-F43)/F43))*D43*(1+'[3]Key parameters rpt'!E78)/(1+'[3]Key parameters rpt'!D78)</f>
-        <v>2.1492111835045797</v>
+        <v>2.1274411830931377</v>
       </c>
       <c r="M43" s="229">
         <f>'[3]Key parameters rpt'!F78</f>
@@ -22385,14 +23409,14 @@
       </c>
       <c r="N43" s="230">
         <f>N44*'[3]Key parameters rpt'!F78</f>
-        <v>85.912866707302669</v>
+        <v>85.042629683635084</v>
       </c>
       <c r="O43" s="224" t="s">
         <v>315</v>
       </c>
       <c r="U43" s="231">
         <f>'[3]Key parameters rpt'!$C$56</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="92"/>
     </row>
@@ -22422,27 +23446,27 @@
       <c r="I44" s="233"/>
       <c r="J44" s="233">
         <f>SUM(J41:J43)+J38</f>
-        <v>527690.08610153734</v>
+        <v>838050.16005976067</v>
       </c>
       <c r="K44" s="233"/>
       <c r="L44" s="233">
         <f>SUM(L41:L43)+L38</f>
-        <v>10306.525243871154</v>
+        <v>12519.511525402599</v>
       </c>
       <c r="M44" s="234">
         <f>'[3]Key parameters rpt'!F79</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="N44" s="237">
         <f>+F44*(1+U48)</f>
-        <v>17182.573341460535</v>
+        <v>17008.525936727016</v>
       </c>
       <c r="O44" s="224" t="s">
         <v>317</v>
       </c>
       <c r="U44" s="225">
         <f>-1+U38/R38</f>
-        <v>-7.5469648013257951E-2</v>
+        <v>3.8148135541699935E-2</v>
       </c>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
@@ -22624,7 +23648,7 @@
       <c r="T48" s="248"/>
       <c r="U48" s="249">
         <f>-1++(1+U42)*(1+'[3]Key parameters rpt'!C56)*(1+U44)*(1+'[3]Key parameters rpt'!C58)*(1+'[3]Key parameters rpt'!C59)*(1+'[3]Key parameters rpt'!C60)</f>
-        <v>0.20136852588432341</v>
+        <v>0.18919950615116354</v>
       </c>
       <c r="Y48" s="92"/>
     </row>
@@ -22754,15 +23778,15 @@
       <c r="K52" s="233"/>
       <c r="L52" s="233">
         <f>L38+L41+L50</f>
-        <v>15813.250100937785</v>
+        <v>18061.306042141347</v>
       </c>
       <c r="M52" s="269">
         <f>'[3]Key parameters rpt'!F73+'[3]Key parameters rpt'!F76</f>
-        <v>0.57499999999999996</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="N52" s="270">
         <f>N41+N38</f>
-        <v>9879.9796713398082</v>
+        <v>10290.158191719844</v>
       </c>
       <c r="O52" s="153" t="s">
         <v>332</v>
@@ -22770,7 +23794,7 @@
       <c r="P52" s="2"/>
       <c r="R52" s="271">
         <f>'[3]Key parameters rpt'!$C$65</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="53" t="s">
         <v>333</v>
@@ -22782,7 +23806,7 @@
       <c r="Y52" s="92"/>
     </row>
     <row r="53" spans="1:60" ht="15" customHeight="1" thickBot="1">
-      <c r="B53" s="508" t="s">
+      <c r="B53" s="653" t="s">
         <v>334</v>
       </c>
       <c r="C53" s="272"/>
@@ -22814,7 +23838,7 @@
       <c r="AG53" s="92"/>
     </row>
     <row r="54" spans="1:60" ht="15" customHeight="1">
-      <c r="B54" s="509"/>
+      <c r="B54" s="654"/>
       <c r="D54" t="s">
         <v>287</v>
       </c>
@@ -22830,7 +23854,7 @@
     </row>
     <row r="55" spans="1:60" ht="14.65" customHeight="1">
       <c r="A55" s="123"/>
-      <c r="B55" s="510"/>
+      <c r="B55" s="655"/>
       <c r="C55" s="278"/>
       <c r="D55" s="279" t="s">
         <v>289</v>
@@ -22895,7 +23919,7 @@
       </c>
       <c r="F56" t="str">
         <f>+$F$1</f>
-        <v>Core higher population</v>
+        <v>Current Policies</v>
       </c>
       <c r="G56" s="285"/>
       <c r="H56" s="286" t="s">
@@ -22939,7 +23963,7 @@
       </c>
       <c r="AA56" s="109" t="str">
         <f>+$F$1</f>
-        <v>Core higher population</v>
+        <v>Current Policies</v>
       </c>
       <c r="AB56" s="295"/>
       <c r="AC56" s="286" t="s">
@@ -23035,24 +24059,24 @@
     </row>
     <row r="58" spans="1:60" s="306" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A58" s="302"/>
-      <c r="B58" s="511" t="s">
+      <c r="B58" s="656" t="s">
         <v>342</v>
       </c>
-      <c r="C58" s="513" t="s">
+      <c r="C58" s="657" t="s">
         <v>287</v>
       </c>
-      <c r="D58" s="515" t="s">
+      <c r="D58" s="658" t="s">
         <v>343</v>
       </c>
-      <c r="E58" s="516"/>
-      <c r="F58" s="516"/>
-      <c r="G58" s="517"/>
-      <c r="H58" s="515" t="s">
+      <c r="E58" s="659"/>
+      <c r="F58" s="659"/>
+      <c r="G58" s="660"/>
+      <c r="H58" s="658" t="s">
         <v>344</v>
       </c>
-      <c r="I58" s="516"/>
-      <c r="J58" s="516"/>
-      <c r="K58" s="517"/>
+      <c r="I58" s="659"/>
+      <c r="J58" s="659"/>
+      <c r="K58" s="660"/>
       <c r="L58" s="303" t="s">
         <v>345</v>
       </c>
@@ -23124,8 +24148,8 @@
       <c r="A59" s="309" t="s">
         <v>353</v>
       </c>
-      <c r="B59" s="512"/>
-      <c r="C59" s="514"/>
+      <c r="B59" s="637"/>
+      <c r="C59" s="639"/>
       <c r="D59" s="310" t="s">
         <v>354</v>
       </c>
@@ -25255,24 +26279,24 @@
     </row>
     <row r="76" spans="1:59" s="306" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A76" s="421"/>
-      <c r="B76" s="518" t="s">
+      <c r="B76" s="636" t="s">
         <v>382</v>
       </c>
-      <c r="C76" s="519" t="s">
+      <c r="C76" s="638" t="s">
         <v>287</v>
       </c>
-      <c r="D76" s="520" t="s">
+      <c r="D76" s="640" t="s">
         <v>343</v>
       </c>
-      <c r="E76" s="521"/>
-      <c r="F76" s="521"/>
-      <c r="G76" s="522"/>
-      <c r="H76" s="520" t="s">
+      <c r="E76" s="641"/>
+      <c r="F76" s="641"/>
+      <c r="G76" s="642"/>
+      <c r="H76" s="640" t="s">
         <v>344</v>
       </c>
-      <c r="I76" s="521"/>
-      <c r="J76" s="521"/>
-      <c r="K76" s="522"/>
+      <c r="I76" s="641"/>
+      <c r="J76" s="641"/>
+      <c r="K76" s="642"/>
       <c r="L76" s="422" t="s">
         <v>345</v>
       </c>
@@ -25331,8 +26355,8 @@
     </row>
     <row r="77" spans="1:59" ht="51.75" outlineLevel="1">
       <c r="A77" s="309"/>
-      <c r="B77" s="512"/>
-      <c r="C77" s="514"/>
+      <c r="B77" s="637"/>
+      <c r="C77" s="639"/>
       <c r="D77" s="310" t="s">
         <v>354</v>
       </c>
@@ -25481,33 +26505,33 @@
       </c>
       <c r="C78" s="319">
         <f>J39</f>
-        <v>393669.8447201415</v>
+        <v>714417.45021788334</v>
       </c>
       <c r="D78" s="320">
         <f>Z78</f>
-        <v>1493.1690037784194</v>
+        <v>2709.7477917875622</v>
       </c>
       <c r="E78" s="321"/>
       <c r="F78" s="322">
         <f>+G78-E78-D78</f>
-        <v>1582.1224572046419</v>
+        <v>2871.177223676139</v>
       </c>
       <c r="G78" s="323">
         <f>O78+T78++Z78+AE78+AJ78+AQ78+AV78</f>
-        <v>3075.2914609830614</v>
+        <v>5580.9250154637011</v>
       </c>
       <c r="H78" s="324">
         <f>+AA78</f>
-        <v>3635.4679431741424</v>
+        <v>232895.49257574059</v>
       </c>
       <c r="I78" s="325"/>
       <c r="J78" s="322">
         <f>+K78-I78-H78</f>
-        <v>106951.47810703376</v>
+        <v>194091.58032050697</v>
       </c>
       <c r="K78" s="323">
         <f>P78+U78++AA78+AF78+AK78+AR78+AW78</f>
-        <v>110586.9460502079</v>
+        <v>426987.07289624756</v>
       </c>
       <c r="L78" s="428">
         <f>'[3]Key parameters rpt'!C88</f>
@@ -25515,7 +26539,7 @@
       </c>
       <c r="M78" s="429">
         <f t="shared" ref="M78:M86" si="17">C78*L78</f>
-        <v>59050.476708021219</v>
+        <v>107162.6175326825</v>
       </c>
       <c r="N78" s="430">
         <f>N60*(1-'[3]Key parameters rpt'!C94)</f>
@@ -25523,11 +26547,11 @@
       </c>
       <c r="O78" s="431">
         <f>$B78/100*M78*N78*'[3]EF-1'!$R$9/1000/1000/1000/1000</f>
-        <v>1582.1224572046417</v>
+        <v>2871.177223676139</v>
       </c>
       <c r="P78" s="323">
         <f>O78*'[3]EF-1'!$K$14</f>
-        <v>106951.47810703376</v>
+        <v>194091.58032050697</v>
       </c>
       <c r="Q78" s="432">
         <f>'[3]Key parameters rpt'!D88</f>
@@ -25559,7 +26583,7 @@
       </c>
       <c r="X78" s="429">
         <f>C78*W78</f>
-        <v>334619.36801212025</v>
+        <v>607254.83268520085</v>
       </c>
       <c r="Y78" s="434">
         <f>Y60*(1-'[3]Key parameters rpt'!E94)</f>
@@ -25567,11 +26591,11 @@
       </c>
       <c r="Z78" s="431">
         <f>IF([3]Transport!W78=W60,[3]Transport!Z60,$B78*X78*Y78/100*3.6/1000/1000)</f>
-        <v>1493.1690037784194</v>
+        <v>2709.7477917875622</v>
       </c>
       <c r="AA78" s="322">
         <f>IF(W78&lt;0.2,AA60,Z78/3.6*1000000*[3]Electricity!$R$19/1000000*1000)</f>
-        <v>3635.4679431741424</v>
+        <v>232895.49257574059</v>
       </c>
       <c r="AB78" s="435">
         <f>'[3]Key parameters rpt'!F88</f>
@@ -25673,33 +26697,33 @@
       </c>
       <c r="C79" s="319">
         <f>J40</f>
-        <v>65611.640786690332</v>
+        <v>64947.040928898554</v>
       </c>
       <c r="D79" s="320">
         <f t="shared" ref="D79:D86" si="20">+Z79</f>
-        <v>12.725673738027576</v>
+        <v>12.596771597261219</v>
       </c>
       <c r="E79" s="321"/>
       <c r="F79" s="322">
         <f t="shared" ref="F79:F86" si="21">+G79-E79-D79</f>
-        <v>44.070750131619654</v>
+        <v>43.624344373143444</v>
       </c>
       <c r="G79" s="323">
         <f>O79+T79++Z79+AE79+AJ79+AQ79+AV79</f>
-        <v>56.796423869647228</v>
+        <v>56.221115970404661</v>
       </c>
       <c r="H79" s="324">
         <f t="shared" ref="H79:H86" si="22">+AA79</f>
-        <v>30.983618607688207</v>
+        <v>1082.6584433058733</v>
       </c>
       <c r="I79" s="325"/>
       <c r="J79" s="322">
         <f t="shared" ref="J79:J86" si="23">+K79-I79-H79</f>
-        <v>2979.1827088974883</v>
+        <v>2949.0056796244967</v>
       </c>
       <c r="K79" s="323">
         <f>P79+U79++AA79+AF79+AK79+AR79+AW79</f>
-        <v>3010.1663275051765</v>
+        <v>4031.66412293037</v>
       </c>
       <c r="L79" s="428">
         <f>'[3]Key parameters rpt'!C89</f>
@@ -25707,7 +26731,7 @@
       </c>
       <c r="M79" s="429">
         <f t="shared" si="17"/>
-        <v>9841.7461180035498</v>
+        <v>9742.0561393347834</v>
       </c>
       <c r="N79" s="430">
         <f>N61*(1-'[3]Key parameters rpt'!C95)</f>
@@ -25715,11 +26739,11 @@
       </c>
       <c r="O79" s="431">
         <f>$B79/100*M79*N79*'[3]EF-1'!$R$9/1000/1000/1000/1000</f>
-        <v>44.070750131619654</v>
+        <v>43.624344373143444</v>
       </c>
       <c r="P79" s="323">
         <f>O79*'[3]EF-1'!$K$14</f>
-        <v>2979.1827088974883</v>
+        <v>2949.0056796244967</v>
       </c>
       <c r="Q79" s="432">
         <f>'[3]Key parameters rpt'!D89</f>
@@ -25751,7 +26775,7 @@
       </c>
       <c r="X79" s="429">
         <f>C79*W79</f>
-        <v>55769.894668686778</v>
+        <v>55204.984789563772</v>
       </c>
       <c r="Y79" s="434">
         <f>Y61*(1-'[3]Key parameters rpt'!E95)</f>
@@ -25759,11 +26783,11 @@
       </c>
       <c r="Z79" s="431">
         <f>IF([3]Transport!W79=W61,[3]Transport!Z61,$B79*X79*Y79/100*3.6/1000/1000)</f>
-        <v>12.725673738027576</v>
+        <v>12.596771597261219</v>
       </c>
       <c r="AA79" s="322">
         <f>IF(W79&lt;0.2,AA61,Z79/3.6*1000000*[3]Electricity!$R$19/1000000*1000)</f>
-        <v>30.983618607688207</v>
+        <v>1082.6584433058733</v>
       </c>
       <c r="AB79" s="435">
         <f>'[3]Key parameters rpt'!F89</f>
@@ -25861,37 +26885,37 @@
       </c>
       <c r="B80" s="318">
         <f>+(L34+L35+L36)*1000000/(J34+J35+J36)</f>
-        <v>24558.857862711571</v>
+        <v>24703.771554187759</v>
       </c>
       <c r="C80" s="319">
         <f>SUM(J34:J36)</f>
-        <v>39979.277085884816</v>
+        <v>38821.183439474968</v>
       </c>
       <c r="D80" s="320">
         <f t="shared" si="20"/>
-        <v>1237.1251830918206</v>
+        <v>0</v>
       </c>
       <c r="E80" s="321"/>
       <c r="F80" s="322">
         <f t="shared" si="21"/>
-        <v>110625.55206440364</v>
+        <v>15515.353431599116</v>
       </c>
       <c r="G80" s="323">
         <f>O80+T80++Z80+AE80+AJ80+AR80+AV80</f>
-        <v>111862.67724749546</v>
+        <v>15515.353431599116</v>
       </c>
       <c r="H80" s="324">
         <f t="shared" si="22"/>
-        <v>3012.0695871953494</v>
+        <v>4596.1846526244071</v>
       </c>
       <c r="I80" s="325"/>
       <c r="J80" s="322">
         <f>+K80-I80-H80</f>
-        <v>110625.55206440364</v>
+        <v>1125041.8721023598</v>
       </c>
       <c r="K80" s="323">
         <f>P80+U80++AA80+AF80+AK80+AR80+AW80</f>
-        <v>113637.62165159899</v>
+        <v>1129638.0567549842</v>
       </c>
       <c r="L80" s="428">
         <f>'[3]Key parameters rpt'!C90</f>
@@ -25915,11 +26939,11 @@
       </c>
       <c r="Q80" s="432">
         <f>'[3]Key parameters rpt'!D90</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R80" s="429">
         <f>C80*Q80</f>
-        <v>0</v>
+        <v>38821.183439474968</v>
       </c>
       <c r="S80" s="441">
         <f>S62*(1-'[3]Key parameters rpt'!D96)</f>
@@ -25927,11 +26951,11 @@
       </c>
       <c r="T80" s="431">
         <f>B80*R80*S80/100/'[3]EF-1'!$U$11*'[3]EF-1'!$B$16/1000000000</f>
-        <v>0</v>
+        <v>15515.353431599116</v>
       </c>
       <c r="U80" s="322">
         <f>'[3]EF-1'!$K$16*[3]Transport!T80</f>
-        <v>0</v>
+        <v>1125041.8721023598</v>
       </c>
       <c r="V80" s="317" t="str">
         <f t="shared" si="18"/>
@@ -25939,11 +26963,11 @@
       </c>
       <c r="W80" s="428">
         <f>'[3]Key parameters rpt'!E90</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X80" s="429">
         <f>C80*W80</f>
-        <v>19989.638542942408</v>
+        <v>0</v>
       </c>
       <c r="Y80" s="434">
         <f>Y62*(1-'[3]Key parameters rpt'!E96)</f>
@@ -25951,11 +26975,11 @@
       </c>
       <c r="Z80" s="431">
         <f>IF([3]Transport!W80=W62,[3]Transport!Z62,$B80*X80*Y80/100*3.6/1000/1000)</f>
-        <v>1237.1251830918206</v>
+        <v>0</v>
       </c>
       <c r="AA80" s="322">
         <f>IF(W80&lt;0.2,AA62,Z80/3.6*1000000*[3]Electricity!$R$19/1000000*1000)</f>
-        <v>3012.0695871953494</v>
+        <v>4596.1846526244071</v>
       </c>
       <c r="AB80" s="435">
         <f>'[3]Key parameters rpt'!F90</f>
@@ -25997,11 +27021,11 @@
       </c>
       <c r="AL80" s="435">
         <f>'[3]Key parameters rpt'!H90</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AM80" s="429">
         <f>C80*AL80</f>
-        <v>19989.638542942408</v>
+        <v>0</v>
       </c>
       <c r="AN80" s="438">
         <f>AN62*(1-'[3]Key parameters rpt'!H96)</f>
@@ -26009,18 +27033,18 @@
       </c>
       <c r="AO80" s="439">
         <f>AQ80-AP80</f>
-        <v>5761.7475033543569</v>
+        <v>0</v>
       </c>
       <c r="AP80">
         <v>0</v>
       </c>
       <c r="AQ80" s="322">
         <f>AN80*B80*AM80*'[3]EF-1'!$R$25/1000/1000</f>
-        <v>5761.7475033543569</v>
+        <v>0</v>
       </c>
       <c r="AR80" s="431">
         <f>AQ80*'[3]EF-1'!$K$30</f>
-        <v>110625.55206440364</v>
+        <v>0</v>
       </c>
       <c r="AS80" s="437">
         <f>+'[3]Key parameters rpt'!I90</f>
@@ -26057,11 +27081,11 @@
       </c>
       <c r="C81" s="319">
         <f>J37</f>
-        <v>28429.323508820653</v>
+        <v>19864.485473503766</v>
       </c>
       <c r="D81" s="320">
         <f t="shared" si="20"/>
-        <v>1707.5857702823398</v>
+        <v>1193.1452648885916</v>
       </c>
       <c r="E81" s="321"/>
       <c r="F81" s="322">
@@ -26070,11 +27094,11 @@
       </c>
       <c r="G81" s="323">
         <f>O81+T81++Z81+AE81+AJ81+AQ81+AV81</f>
-        <v>1707.5857702823398</v>
+        <v>1193.1452648885916</v>
       </c>
       <c r="H81" s="324">
         <f t="shared" si="22"/>
-        <v>4157.515533990415</v>
+        <v>102547.60794447619</v>
       </c>
       <c r="I81" s="325"/>
       <c r="J81" s="322">
@@ -26083,7 +27107,7 @@
       </c>
       <c r="K81" s="323">
         <f>P81+U81++AA81+AF81+AK81+AR81+AW81</f>
-        <v>4157.515533990415</v>
+        <v>102547.60794447619</v>
       </c>
       <c r="L81" s="428">
         <f>'[3]Key parameters rpt'!C91</f>
@@ -26135,7 +27159,7 @@
       </c>
       <c r="X81" s="429">
         <f>C81*W81</f>
-        <v>28429.323508820653</v>
+        <v>19864.485473503766</v>
       </c>
       <c r="Y81" s="434">
         <f>Y63*(1-'[3]Key parameters rpt'!E97)</f>
@@ -26143,11 +27167,11 @@
       </c>
       <c r="Z81" s="431">
         <f>IF([3]Transport!W81=W63,[3]Transport!Z63,$B81*X81*Y81/100*3.6/1000/1000)</f>
-        <v>1707.5857702823398</v>
+        <v>1193.1452648885916</v>
       </c>
       <c r="AA81" s="322">
         <f>IF(W81&lt;0.2,AA63,Z81/3.6*1000000*[3]Electricity!$R$19/1000000*1000)</f>
-        <v>4157.515533990415</v>
+        <v>102547.60794447619</v>
       </c>
       <c r="AB81" s="435">
         <f>'[3]Key parameters rpt'!F91</f>
@@ -26258,11 +27282,11 @@
       <c r="E82" s="321"/>
       <c r="F82" s="322">
         <f t="shared" si="21"/>
-        <v>103155.21105690586</v>
+        <v>92443.844694128798</v>
       </c>
       <c r="G82" s="323">
         <f>O82+T82++Z82+AE82+AJ82+AQ82+AV82</f>
-        <v>104478.47404527706</v>
+        <v>93767.107682500005</v>
       </c>
       <c r="H82" s="324">
         <f>+AA82</f>
@@ -26271,11 +27295,11 @@
       <c r="I82" s="325"/>
       <c r="J82" s="322">
         <f t="shared" si="23"/>
-        <v>2551619.2822668902</v>
+        <v>1774921.8181272729</v>
       </c>
       <c r="K82" s="344">
         <f>P82+U82++AA82+AF82+AK82+AR82+AW82</f>
-        <v>2558041.1720478814</v>
+        <v>1781343.7079082641</v>
       </c>
       <c r="L82" s="428">
         <f>'[3]Key parameters rpt'!C92</f>
@@ -26299,11 +27323,11 @@
       </c>
       <c r="Q82" s="432">
         <f>'[3]Key parameters rpt'!D92</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R82" s="429">
         <f>C82*Q82</f>
-        <v>40448.878800550003</v>
+        <v>0</v>
       </c>
       <c r="S82" s="441">
         <f>S64*(1-'[3]Key parameters rpt'!D98)</f>
@@ -26311,11 +27335,11 @@
       </c>
       <c r="T82" s="431">
         <f>B82*R82*S82/100/'[3]EF-1'!$U$11*'[3]EF-1'!$B$16/1000000000</f>
-        <v>10711.366362777053</v>
+        <v>0</v>
       </c>
       <c r="U82" s="322">
         <f>'[3]EF-1'!$K$16*[3]Transport!T82</f>
-        <v>776697.46413961705</v>
+        <v>0</v>
       </c>
       <c r="V82" s="317" t="str">
         <f t="shared" si="18"/>
@@ -26430,7 +27454,7 @@
       <c r="AX82" s="128"/>
       <c r="BG82" s="163">
         <f>L82+Q82+W82+AB82+AG82+AL82+AS82</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="83" spans="1:59" ht="15" customHeight="1" outlineLevel="1">
@@ -26447,7 +27471,7 @@
       </c>
       <c r="D83" s="320">
         <f>+Z78</f>
-        <v>1493.1690037784194</v>
+        <v>2709.7477917875622</v>
       </c>
       <c r="E83" s="321"/>
       <c r="F83" s="322">
@@ -26456,7 +27480,7 @@
       </c>
       <c r="G83" s="323">
         <f>O83+T83++Z78+AE83+AJ83+AQ83+AV83</f>
-        <v>1493.1690037784194</v>
+        <v>2709.7477917875622</v>
       </c>
       <c r="H83" s="324">
         <f t="shared" si="22"/>
@@ -26782,11 +27806,11 @@
       <c r="B87" s="386"/>
       <c r="C87" s="319">
         <f t="shared" ref="C87:K87" si="25">SUM(C78:C82)</f>
-        <v>729934.48010428739</v>
+        <v>1040294.5540625108</v>
       </c>
       <c r="D87" s="453">
         <f>SUM(D78:D82)</f>
-        <v>5773.8686192618206</v>
+        <v>5238.7528166446282</v>
       </c>
       <c r="E87" s="454">
         <f t="shared" si="25"/>
@@ -26794,15 +27818,15 @@
       </c>
       <c r="F87" s="455">
         <f t="shared" si="25"/>
-        <v>215406.95632864576</v>
+        <v>110873.99969377719</v>
       </c>
       <c r="G87" s="456">
         <f t="shared" si="25"/>
-        <v>221180.82494790759</v>
+        <v>116112.75251042182</v>
       </c>
       <c r="H87" s="457">
         <f t="shared" si="25"/>
-        <v>17257.926463958818</v>
+        <v>347543.83339713828</v>
       </c>
       <c r="I87" s="198">
         <f t="shared" si="25"/>
@@ -26810,39 +27834,39 @@
       </c>
       <c r="J87" s="198">
         <f>SUM(J78+J79+J80+J81+J82)</f>
-        <v>2772175.495147225</v>
+        <v>3097004.2762297643</v>
       </c>
       <c r="K87" s="458">
         <f t="shared" si="25"/>
-        <v>2789433.4216111838</v>
+        <v>3444548.1096269023</v>
       </c>
       <c r="L87" s="453"/>
       <c r="M87" s="459">
         <f>SUM(M78:M82)</f>
-        <v>68892.222826024765</v>
+        <v>116904.67367201729</v>
       </c>
       <c r="N87" s="459"/>
       <c r="O87" s="459">
         <f>SUM(O78:O82)</f>
-        <v>1626.1932073362614</v>
+        <v>2914.8015680492822</v>
       </c>
       <c r="P87" s="456">
         <f>SUM(P78:P82)</f>
-        <v>109930.66081593125</v>
+        <v>197040.58600013147</v>
       </c>
       <c r="Q87" s="459"/>
       <c r="R87" s="459">
         <f>SUM(R78:R82)</f>
-        <v>40448.878800550003</v>
+        <v>38821.183439474968</v>
       </c>
       <c r="S87" s="459"/>
       <c r="T87" s="459">
         <f>SUM(T78:T82)</f>
-        <v>10711.366362777053</v>
+        <v>15515.353431599116</v>
       </c>
       <c r="U87" s="455">
         <f>SUM(U78:U82)</f>
-        <v>776697.46413961705</v>
+        <v>1125041.8721023598</v>
       </c>
       <c r="V87" s="460" t="str">
         <f t="shared" si="18"/>
@@ -26851,16 +27875,16 @@
       <c r="W87" s="453"/>
       <c r="X87" s="459">
         <f>SUM(X78:X82)</f>
-        <v>448920.44443270762</v>
+        <v>692436.52264840587</v>
       </c>
       <c r="Y87" s="459"/>
       <c r="Z87" s="459">
         <f>SUM(Z78:Z82)</f>
-        <v>5773.8686192618206</v>
+        <v>5238.7528166446282</v>
       </c>
       <c r="AA87" s="459">
         <f>SUM(AA78:AA82)</f>
-        <v>17257.926463958818</v>
+        <v>347543.83339713828</v>
       </c>
       <c r="AB87" s="453"/>
       <c r="AC87" s="459">
@@ -26893,7 +27917,7 @@
       <c r="AL87" s="453"/>
       <c r="AM87" s="459">
         <f>SUM(AM78:AM82)</f>
-        <v>171672.93404500489</v>
+        <v>151683.29550206248</v>
       </c>
       <c r="AN87" s="459"/>
       <c r="AO87" s="459"/>
@@ -26903,11 +27927,11 @@
       </c>
       <c r="AQ87" s="459">
         <f>SUM(AQ78:AQ82)</f>
-        <v>98205.592197483158</v>
+        <v>92443.844694128798</v>
       </c>
       <c r="AR87" s="456">
         <f>SUM(AR78:AR82)</f>
-        <v>1885547.3701916765</v>
+        <v>1774921.8181272729</v>
       </c>
       <c r="AS87" s="453"/>
       <c r="AT87" s="459">
@@ -26932,7 +27956,7 @@
       <c r="C88" s="394"/>
       <c r="D88" s="320">
         <f t="shared" ref="D88:D90" si="26">+Z88</f>
-        <v>3573.3589145355368</v>
+        <v>3284.5087762011594</v>
       </c>
       <c r="E88" s="92"/>
       <c r="F88" s="322">
@@ -26941,11 +27965,11 @@
       </c>
       <c r="G88" s="319">
         <f>O88+T88++Z88+AE88+AJ88+AQ88+AV88</f>
-        <v>3573.3589145355368</v>
+        <v>3284.5087762011594</v>
       </c>
       <c r="H88" s="324">
         <f>+AA88</f>
-        <v>8700.1750976457333</v>
+        <v>282294.64440234588</v>
       </c>
       <c r="I88" s="92"/>
       <c r="J88" s="322">
@@ -26954,7 +27978,7 @@
       </c>
       <c r="K88" s="323">
         <f>P88+U88++AA88+AF88+AK88+AR88+AW88</f>
-        <v>8700.1750976457333</v>
+        <v>282294.64440234588</v>
       </c>
       <c r="L88" s="461"/>
       <c r="M88" s="462"/>
@@ -26975,11 +27999,11 @@
       <c r="Y88" s="99"/>
       <c r="Z88" s="429">
         <f>+Z70*(1-'[3]Key parameters rpt'!E99)*[3]Transport!N42/[3]Transport!F42</f>
-        <v>3573.3589145355368</v>
+        <v>3284.5087762011594</v>
       </c>
       <c r="AA88" s="322">
         <f>Z88*[3]Electricity!$S$19*1000</f>
-        <v>8700.1750976457333</v>
+        <v>282294.64440234588</v>
       </c>
       <c r="AB88" s="466"/>
       <c r="AC88" s="462"/>
@@ -27150,7 +28174,7 @@
       <c r="C91" s="407"/>
       <c r="D91" s="408">
         <f>SUM(D87:D90)</f>
-        <v>9347.227533797357</v>
+        <v>8523.2615928457872</v>
       </c>
       <c r="E91" s="409">
         <f t="shared" ref="E91:K91" si="29">SUM(E87:E90)</f>
@@ -27158,15 +28182,15 @@
       </c>
       <c r="F91" s="409">
         <f t="shared" si="29"/>
-        <v>220902.60426442558</v>
+        <v>116369.647629557</v>
       </c>
       <c r="G91" s="407">
         <f t="shared" si="29"/>
-        <v>230249.83179822296</v>
+        <v>124892.90922240278</v>
       </c>
       <c r="H91" s="408">
         <f>SUM(H87:H90)</f>
-        <v>25958.101561604552</v>
+        <v>629838.47779948416</v>
       </c>
       <c r="I91" s="409">
         <f t="shared" si="29"/>
@@ -27174,33 +28198,33 @@
       </c>
       <c r="J91" s="409">
         <f t="shared" si="29"/>
-        <v>3108338.9052854739</v>
+        <v>3433167.6863680133</v>
       </c>
       <c r="K91" s="407">
         <f t="shared" si="29"/>
-        <v>3134297.0068470784</v>
+        <v>4063006.1641674968</v>
       </c>
       <c r="L91" s="410"/>
       <c r="M91" s="411"/>
       <c r="N91" s="412"/>
       <c r="O91" s="413">
         <f>SUM(O87:O90)</f>
-        <v>1626.1932073362614</v>
+        <v>2914.8015680492822</v>
       </c>
       <c r="P91" s="414">
         <f>SUM(P87:P90)</f>
-        <v>109930.66081593125</v>
+        <v>197040.58600013147</v>
       </c>
       <c r="Q91" s="412"/>
       <c r="R91" s="412"/>
       <c r="S91" s="412"/>
       <c r="T91" s="413">
         <f>SUM(T87:T90)</f>
-        <v>18308.366362777051</v>
+        <v>23112.353431599116</v>
       </c>
       <c r="U91" s="482">
         <f>SUM(U87:U90)</f>
-        <v>1327567.4871810914</v>
+        <v>1675911.8951438342</v>
       </c>
       <c r="V91" s="415" t="str">
         <f t="shared" si="18"/>
@@ -27211,11 +28235,11 @@
       <c r="Y91" s="412"/>
       <c r="Z91" s="413">
         <f>SUM(Z87:Z90)</f>
-        <v>9347.227533797357</v>
+        <v>8523.2615928457872</v>
       </c>
       <c r="AA91" s="413">
         <f>SUM(AA87:AA90)</f>
-        <v>25958.101561604552</v>
+        <v>629838.47779948416</v>
       </c>
       <c r="AB91" s="416"/>
       <c r="AC91" s="412"/>
@@ -27246,11 +28270,11 @@
       <c r="AP91" s="412"/>
       <c r="AQ91" s="413">
         <f>SUM(AQ87:AQ90)</f>
-        <v>98205.592197483158</v>
+        <v>92443.844694128798</v>
       </c>
       <c r="AR91" s="413">
         <f>SUM(AR87:AR90)</f>
-        <v>1885547.3701916765</v>
+        <v>1774921.8181272729</v>
       </c>
       <c r="AS91" s="412"/>
       <c r="AT91" s="412"/>
@@ -27281,24 +28305,11 @@
       </c>
       <c r="AA92" s="242">
         <f>Z78*1000*[3]Electricity!S19*1000*1000/X78/B78</f>
-        <v>0.9816843712792046</v>
+        <v>34.653949305220216</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="A15:F16"/>
-    <mergeCell ref="O19:P21"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="H58:K58"/>
     <mergeCell ref="Q6:R7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="H8:I9"/>
@@ -27312,6 +28323,19 @@
     <mergeCell ref="O5:P6"/>
     <mergeCell ref="I6:J7"/>
     <mergeCell ref="M6:N8"/>
+    <mergeCell ref="O19:P21"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="A15:F16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="https://www.td.gov.hk/filemanager/en/content_4854/table21s.pdf" xr:uid="{8CB8AFC4-F6B9-4016-BD5C-1AFE21AA9D19}"/>
@@ -27479,1250 +28503,1296 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="526" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="526" customWidth="1"/>
-    <col min="3" max="3" width="17" style="526" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="532" customWidth="1"/>
-    <col min="5" max="5" width="1.5703125" style="529" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="531" customWidth="1"/>
-    <col min="7" max="7" width="1.5703125" style="528" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="531" customWidth="1"/>
-    <col min="9" max="9" width="1.5703125" style="528" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="530" customWidth="1"/>
-    <col min="11" max="11" width="1.5703125" style="529" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="526" customWidth="1"/>
-    <col min="13" max="13" width="1.5703125" style="526" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" style="526" customWidth="1"/>
-    <col min="15" max="15" width="1.85546875" style="526" customWidth="1"/>
-    <col min="16" max="16" width="11" style="528" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="526" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" style="526" customWidth="1"/>
-    <col min="19" max="19" width="1.5703125" style="527" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="526" customWidth="1"/>
-    <col min="21" max="21" width="0.85546875" style="526" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" style="526" customWidth="1"/>
-    <col min="23" max="23" width="0.85546875" style="528" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" style="526" customWidth="1"/>
-    <col min="25" max="25" width="1.5703125" style="527" customWidth="1"/>
-    <col min="26" max="26" width="9.28515625" style="526" customWidth="1"/>
-    <col min="27" max="27" width="0.85546875" style="526" customWidth="1"/>
-    <col min="28" max="28" width="9.28515625" style="526" customWidth="1"/>
-    <col min="29" max="29" width="0.85546875" style="526" customWidth="1"/>
-    <col min="30" max="30" width="5" style="526" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="526"/>
+    <col min="1" max="1" width="9.28515625" style="486" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="486" customWidth="1"/>
+    <col min="3" max="3" width="17" style="486" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="492" customWidth="1"/>
+    <col min="5" max="5" width="1.5703125" style="489" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="491" customWidth="1"/>
+    <col min="7" max="7" width="1.5703125" style="488" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="491" customWidth="1"/>
+    <col min="9" max="9" width="1.5703125" style="488" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="490" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" style="489" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="486" customWidth="1"/>
+    <col min="13" max="13" width="1.5703125" style="486" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="486" customWidth="1"/>
+    <col min="15" max="15" width="1.85546875" style="486" customWidth="1"/>
+    <col min="16" max="16" width="11" style="488" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="486" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="486" customWidth="1"/>
+    <col min="19" max="19" width="1.5703125" style="487" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="486" customWidth="1"/>
+    <col min="21" max="21" width="0.85546875" style="486" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" style="486" customWidth="1"/>
+    <col min="23" max="23" width="0.85546875" style="488" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" style="486" customWidth="1"/>
+    <col min="25" max="25" width="1.5703125" style="487" customWidth="1"/>
+    <col min="26" max="26" width="9.28515625" style="486" customWidth="1"/>
+    <col min="27" max="27" width="0.85546875" style="486" customWidth="1"/>
+    <col min="28" max="28" width="9.28515625" style="486" customWidth="1"/>
+    <col min="29" max="29" width="0.85546875" style="486" customWidth="1"/>
+    <col min="30" max="30" width="5" style="486" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="486"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.6" customHeight="1">
-      <c r="A1" s="734" t="s">
+      <c r="A1" s="635" t="s">
         <v>467</v>
       </c>
-      <c r="B1" s="733" t="s">
+      <c r="B1" s="634" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15.6" customHeight="1">
-      <c r="A2" s="732" t="s">
+      <c r="A2" s="633" t="s">
         <v>465</v>
       </c>
-      <c r="B2" s="731" t="s">
+      <c r="B2" s="632" t="s">
         <v>464</v>
       </c>
-      <c r="AB2" s="730">
+      <c r="AB2" s="631">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="5.25" customHeight="1"/>
     <row r="4" spans="1:30" ht="14.25" customHeight="1">
-      <c r="A4" s="717" t="s">
+      <c r="A4" s="705" t="s">
         <v>463</v>
       </c>
-      <c r="B4" s="729"/>
-      <c r="C4" s="729"/>
-      <c r="D4" s="726" t="s">
+      <c r="B4" s="712"/>
+      <c r="C4" s="712"/>
+      <c r="D4" s="676" t="s">
         <v>462</v>
       </c>
-      <c r="E4" s="725"/>
-      <c r="F4" s="725"/>
-      <c r="G4" s="725"/>
-      <c r="H4" s="725"/>
-      <c r="I4" s="724"/>
-      <c r="J4" s="726" t="s">
+      <c r="E4" s="677"/>
+      <c r="F4" s="677"/>
+      <c r="G4" s="677"/>
+      <c r="H4" s="677"/>
+      <c r="I4" s="678"/>
+      <c r="J4" s="676" t="s">
         <v>461</v>
       </c>
-      <c r="K4" s="725"/>
-      <c r="L4" s="725"/>
-      <c r="M4" s="725"/>
-      <c r="N4" s="725"/>
-      <c r="O4" s="728"/>
-      <c r="P4" s="727" t="s">
+      <c r="K4" s="677"/>
+      <c r="L4" s="677"/>
+      <c r="M4" s="677"/>
+      <c r="N4" s="677"/>
+      <c r="O4" s="719"/>
+      <c r="P4" s="682" t="s">
         <v>460</v>
       </c>
-      <c r="Q4" s="725"/>
-      <c r="R4" s="725"/>
-      <c r="S4" s="725"/>
-      <c r="T4" s="725"/>
-      <c r="U4" s="725"/>
-      <c r="V4" s="725"/>
-      <c r="W4" s="724"/>
-      <c r="X4" s="726" t="s">
+      <c r="Q4" s="677"/>
+      <c r="R4" s="677"/>
+      <c r="S4" s="677"/>
+      <c r="T4" s="677"/>
+      <c r="U4" s="677"/>
+      <c r="V4" s="677"/>
+      <c r="W4" s="678"/>
+      <c r="X4" s="676" t="s">
         <v>459</v>
       </c>
-      <c r="Y4" s="725"/>
-      <c r="Z4" s="725"/>
-      <c r="AA4" s="725"/>
-      <c r="AB4" s="725"/>
-      <c r="AC4" s="724"/>
+      <c r="Y4" s="677"/>
+      <c r="Z4" s="677"/>
+      <c r="AA4" s="677"/>
+      <c r="AB4" s="677"/>
+      <c r="AC4" s="678"/>
     </row>
     <row r="5" spans="1:30" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="723"/>
-      <c r="B5" s="723"/>
-      <c r="C5" s="723"/>
-      <c r="D5" s="720"/>
-      <c r="E5" s="719"/>
-      <c r="F5" s="719"/>
-      <c r="G5" s="719"/>
-      <c r="H5" s="719"/>
-      <c r="I5" s="718"/>
-      <c r="J5" s="720"/>
-      <c r="K5" s="719"/>
-      <c r="L5" s="719"/>
-      <c r="M5" s="719"/>
-      <c r="N5" s="719"/>
-      <c r="O5" s="722"/>
-      <c r="P5" s="721"/>
-      <c r="Q5" s="719"/>
-      <c r="R5" s="719"/>
-      <c r="S5" s="719"/>
-      <c r="T5" s="719"/>
-      <c r="U5" s="719"/>
-      <c r="V5" s="719"/>
-      <c r="W5" s="718"/>
-      <c r="X5" s="720"/>
-      <c r="Y5" s="719"/>
-      <c r="Z5" s="719"/>
-      <c r="AA5" s="719"/>
-      <c r="AB5" s="719"/>
-      <c r="AC5" s="718"/>
+      <c r="A5" s="713"/>
+      <c r="B5" s="713"/>
+      <c r="C5" s="713"/>
+      <c r="D5" s="679"/>
+      <c r="E5" s="680"/>
+      <c r="F5" s="680"/>
+      <c r="G5" s="680"/>
+      <c r="H5" s="680"/>
+      <c r="I5" s="681"/>
+      <c r="J5" s="679"/>
+      <c r="K5" s="680"/>
+      <c r="L5" s="680"/>
+      <c r="M5" s="680"/>
+      <c r="N5" s="680"/>
+      <c r="O5" s="720"/>
+      <c r="P5" s="683"/>
+      <c r="Q5" s="680"/>
+      <c r="R5" s="680"/>
+      <c r="S5" s="680"/>
+      <c r="T5" s="680"/>
+      <c r="U5" s="680"/>
+      <c r="V5" s="680"/>
+      <c r="W5" s="681"/>
+      <c r="X5" s="679"/>
+      <c r="Y5" s="680"/>
+      <c r="Z5" s="680"/>
+      <c r="AA5" s="680"/>
+      <c r="AB5" s="680"/>
+      <c r="AC5" s="681"/>
     </row>
     <row r="6" spans="1:30" ht="12" customHeight="1">
-      <c r="A6" s="717" t="s">
+      <c r="A6" s="705" t="s">
         <v>458</v>
       </c>
       <c r="B6" s="716" t="s">
         <v>457</v>
       </c>
-      <c r="C6" s="693"/>
-      <c r="D6" s="707" t="s">
+      <c r="C6" s="717"/>
+      <c r="D6" s="684" t="s">
         <v>456</v>
       </c>
-      <c r="E6" s="705"/>
-      <c r="F6" s="707" t="s">
+      <c r="E6" s="686"/>
+      <c r="F6" s="684" t="s">
         <v>453</v>
       </c>
-      <c r="G6" s="706"/>
-      <c r="H6" s="706"/>
-      <c r="I6" s="705"/>
-      <c r="J6" s="715" t="s">
+      <c r="G6" s="685"/>
+      <c r="H6" s="685"/>
+      <c r="I6" s="686"/>
+      <c r="J6" s="630" t="s">
         <v>456</v>
       </c>
-      <c r="K6" s="714"/>
-      <c r="L6" s="707" t="s">
+      <c r="K6" s="629"/>
+      <c r="L6" s="684" t="s">
         <v>453</v>
       </c>
-      <c r="M6" s="706"/>
-      <c r="N6" s="706"/>
-      <c r="O6" s="713"/>
-      <c r="P6" s="712" t="s">
+      <c r="M6" s="685"/>
+      <c r="N6" s="685"/>
+      <c r="O6" s="721"/>
+      <c r="P6" s="628" t="s">
         <v>455</v>
       </c>
-      <c r="Q6" s="711"/>
-      <c r="R6" s="711"/>
-      <c r="S6" s="710"/>
-      <c r="T6" s="707" t="s">
+      <c r="Q6" s="627"/>
+      <c r="R6" s="627"/>
+      <c r="S6" s="626"/>
+      <c r="T6" s="684" t="s">
         <v>453</v>
       </c>
-      <c r="U6" s="706"/>
-      <c r="V6" s="706"/>
-      <c r="W6" s="705"/>
-      <c r="X6" s="709" t="s">
+      <c r="U6" s="685"/>
+      <c r="V6" s="685"/>
+      <c r="W6" s="686"/>
+      <c r="X6" s="690" t="s">
         <v>454</v>
       </c>
-      <c r="Y6" s="708"/>
-      <c r="Z6" s="707" t="s">
+      <c r="Y6" s="691"/>
+      <c r="Z6" s="684" t="s">
         <v>453</v>
       </c>
-      <c r="AA6" s="706"/>
-      <c r="AB6" s="706"/>
-      <c r="AC6" s="705"/>
+      <c r="AA6" s="685"/>
+      <c r="AB6" s="685"/>
+      <c r="AC6" s="686"/>
     </row>
     <row r="7" spans="1:30" ht="24">
-      <c r="A7" s="694"/>
-      <c r="B7" s="693"/>
-      <c r="C7" s="693"/>
-      <c r="D7" s="704" t="s">
+      <c r="A7" s="706"/>
+      <c r="B7" s="717"/>
+      <c r="C7" s="717"/>
+      <c r="D7" s="714" t="s">
         <v>452</v>
       </c>
-      <c r="E7" s="703"/>
-      <c r="F7" s="697" t="s">
+      <c r="E7" s="715"/>
+      <c r="F7" s="687" t="s">
         <v>450</v>
       </c>
-      <c r="G7" s="696"/>
-      <c r="H7" s="696"/>
-      <c r="I7" s="695"/>
-      <c r="J7" s="702" t="s">
+      <c r="G7" s="688"/>
+      <c r="H7" s="688"/>
+      <c r="I7" s="689"/>
+      <c r="J7" s="625" t="s">
         <v>452</v>
       </c>
-      <c r="K7" s="701"/>
-      <c r="L7" s="697" t="s">
+      <c r="K7" s="624"/>
+      <c r="L7" s="687" t="s">
         <v>450</v>
       </c>
-      <c r="M7" s="696"/>
-      <c r="N7" s="696"/>
-      <c r="O7" s="700"/>
-      <c r="P7" s="699"/>
-      <c r="Q7" s="698" t="s">
+      <c r="M7" s="688"/>
+      <c r="N7" s="688"/>
+      <c r="O7" s="702"/>
+      <c r="P7" s="623"/>
+      <c r="Q7" s="622" t="s">
         <v>451</v>
       </c>
-      <c r="R7" s="686"/>
-      <c r="S7" s="685"/>
-      <c r="T7" s="697" t="s">
+      <c r="R7" s="618"/>
+      <c r="S7" s="617"/>
+      <c r="T7" s="687" t="s">
         <v>450</v>
       </c>
-      <c r="U7" s="696"/>
-      <c r="V7" s="696"/>
-      <c r="W7" s="695"/>
-      <c r="X7" s="684"/>
-      <c r="Y7" s="683"/>
-      <c r="Z7" s="697" t="s">
+      <c r="U7" s="688"/>
+      <c r="V7" s="688"/>
+      <c r="W7" s="689"/>
+      <c r="X7" s="692"/>
+      <c r="Y7" s="693"/>
+      <c r="Z7" s="687" t="s">
         <v>450</v>
       </c>
-      <c r="AA7" s="696"/>
-      <c r="AB7" s="696"/>
-      <c r="AC7" s="695"/>
+      <c r="AA7" s="688"/>
+      <c r="AB7" s="688"/>
+      <c r="AC7" s="689"/>
     </row>
     <row r="8" spans="1:30" ht="12.6" customHeight="1">
-      <c r="A8" s="694"/>
-      <c r="B8" s="693"/>
-      <c r="C8" s="693"/>
-      <c r="D8" s="692"/>
-      <c r="E8" s="690"/>
-      <c r="F8" s="682" t="s">
+      <c r="A8" s="706"/>
+      <c r="B8" s="717"/>
+      <c r="C8" s="717"/>
+      <c r="D8" s="621"/>
+      <c r="E8" s="619"/>
+      <c r="F8" s="696" t="s">
         <v>448</v>
       </c>
-      <c r="G8" s="681"/>
-      <c r="H8" s="682" t="s">
+      <c r="G8" s="697"/>
+      <c r="H8" s="696" t="s">
         <v>447</v>
       </c>
-      <c r="I8" s="681"/>
-      <c r="J8" s="691"/>
-      <c r="K8" s="690"/>
-      <c r="L8" s="682" t="s">
+      <c r="I8" s="697"/>
+      <c r="J8" s="620"/>
+      <c r="K8" s="619"/>
+      <c r="L8" s="696" t="s">
         <v>448</v>
       </c>
-      <c r="M8" s="681"/>
-      <c r="N8" s="682" t="s">
+      <c r="M8" s="697"/>
+      <c r="N8" s="696" t="s">
         <v>447</v>
       </c>
-      <c r="O8" s="689"/>
-      <c r="P8" s="688" t="s">
+      <c r="O8" s="703"/>
+      <c r="P8" s="700" t="s">
         <v>449</v>
       </c>
-      <c r="Q8" s="687"/>
-      <c r="R8" s="686"/>
-      <c r="S8" s="685"/>
-      <c r="T8" s="682" t="s">
+      <c r="Q8" s="701"/>
+      <c r="R8" s="618"/>
+      <c r="S8" s="617"/>
+      <c r="T8" s="696" t="s">
         <v>448</v>
       </c>
-      <c r="U8" s="681"/>
-      <c r="V8" s="682" t="s">
+      <c r="U8" s="697"/>
+      <c r="V8" s="696" t="s">
         <v>447</v>
       </c>
-      <c r="W8" s="681"/>
-      <c r="X8" s="684"/>
-      <c r="Y8" s="683"/>
-      <c r="Z8" s="682" t="s">
+      <c r="W8" s="697"/>
+      <c r="X8" s="692"/>
+      <c r="Y8" s="693"/>
+      <c r="Z8" s="696" t="s">
         <v>448</v>
       </c>
-      <c r="AA8" s="681"/>
-      <c r="AB8" s="682" t="s">
+      <c r="AA8" s="697"/>
+      <c r="AB8" s="696" t="s">
         <v>447</v>
       </c>
-      <c r="AC8" s="681"/>
+      <c r="AC8" s="697"/>
     </row>
     <row r="9" spans="1:30" ht="12.6" customHeight="1">
-      <c r="A9" s="680"/>
-      <c r="B9" s="679"/>
-      <c r="C9" s="679"/>
-      <c r="D9" s="678" t="s">
+      <c r="A9" s="707"/>
+      <c r="B9" s="718"/>
+      <c r="C9" s="718"/>
+      <c r="D9" s="616" t="s">
         <v>446</v>
       </c>
-      <c r="E9" s="677"/>
-      <c r="F9" s="667" t="s">
+      <c r="E9" s="615"/>
+      <c r="F9" s="698" t="s">
         <v>445</v>
       </c>
-      <c r="G9" s="666"/>
-      <c r="H9" s="667" t="s">
+      <c r="G9" s="699"/>
+      <c r="H9" s="698" t="s">
         <v>444</v>
       </c>
-      <c r="I9" s="666"/>
-      <c r="J9" s="676" t="s">
+      <c r="I9" s="699"/>
+      <c r="J9" s="614" t="s">
         <v>446</v>
       </c>
-      <c r="K9" s="675"/>
-      <c r="L9" s="667" t="s">
+      <c r="K9" s="613"/>
+      <c r="L9" s="698" t="s">
         <v>445</v>
       </c>
-      <c r="M9" s="666"/>
-      <c r="N9" s="667" t="s">
+      <c r="M9" s="699"/>
+      <c r="N9" s="698" t="s">
         <v>444</v>
       </c>
-      <c r="O9" s="674"/>
-      <c r="P9" s="673"/>
-      <c r="Q9" s="672"/>
-      <c r="R9" s="671"/>
-      <c r="S9" s="670"/>
-      <c r="T9" s="667" t="s">
+      <c r="O9" s="704"/>
+      <c r="P9" s="612"/>
+      <c r="Q9" s="611"/>
+      <c r="R9" s="610"/>
+      <c r="S9" s="609"/>
+      <c r="T9" s="698" t="s">
         <v>445</v>
       </c>
-      <c r="U9" s="666"/>
-      <c r="V9" s="667" t="s">
+      <c r="U9" s="699"/>
+      <c r="V9" s="698" t="s">
         <v>444</v>
       </c>
-      <c r="W9" s="666"/>
-      <c r="X9" s="669"/>
-      <c r="Y9" s="668"/>
-      <c r="Z9" s="667" t="s">
+      <c r="W9" s="699"/>
+      <c r="X9" s="694"/>
+      <c r="Y9" s="695"/>
+      <c r="Z9" s="698" t="s">
         <v>445</v>
       </c>
-      <c r="AA9" s="666"/>
-      <c r="AB9" s="667" t="s">
+      <c r="AA9" s="699"/>
+      <c r="AB9" s="698" t="s">
         <v>444</v>
       </c>
-      <c r="AC9" s="666"/>
-    </row>
-    <row r="10" spans="1:30" s="566" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="665" t="s">
+      <c r="AC9" s="699"/>
+    </row>
+    <row r="10" spans="1:30" s="515" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A10" s="722" t="s">
         <v>443</v>
       </c>
-      <c r="B10" s="664"/>
-      <c r="C10" s="663"/>
-      <c r="D10" s="662">
+      <c r="B10" s="723"/>
+      <c r="C10" s="724"/>
+      <c r="D10" s="608">
         <v>4197.107</v>
       </c>
-      <c r="E10" s="651"/>
-      <c r="F10" s="618">
+      <c r="E10" s="600"/>
+      <c r="F10" s="567">
         <v>-0.14025689257346144</v>
       </c>
-      <c r="G10" s="590"/>
-      <c r="H10" s="618">
+      <c r="G10" s="539"/>
+      <c r="H10" s="567">
         <v>-3.0679807083178039</v>
       </c>
-      <c r="I10" s="590"/>
-      <c r="J10" s="616">
+      <c r="I10" s="539"/>
+      <c r="J10" s="565">
         <v>494.58459999999997</v>
       </c>
-      <c r="K10" s="649"/>
-      <c r="L10" s="660">
+      <c r="K10" s="598"/>
+      <c r="L10" s="606">
         <v>-0.73388164886437401</v>
       </c>
-      <c r="M10" s="661"/>
-      <c r="N10" s="660">
+      <c r="M10" s="607"/>
+      <c r="N10" s="606">
         <v>2.6847308282821487</v>
       </c>
-      <c r="O10" s="659"/>
-      <c r="P10" s="594" t="s">
+      <c r="O10" s="605"/>
+      <c r="P10" s="543" t="s">
         <v>437</v>
       </c>
-      <c r="Q10" s="658"/>
-      <c r="R10" s="657">
+      <c r="Q10" s="604"/>
+      <c r="R10" s="603">
         <v>144</v>
       </c>
-      <c r="S10" s="645"/>
-      <c r="T10" s="586" t="s">
+      <c r="S10" s="594"/>
+      <c r="T10" s="535" t="s">
         <v>439</v>
       </c>
-      <c r="U10" s="587"/>
-      <c r="V10" s="586" t="s">
+      <c r="U10" s="536"/>
+      <c r="V10" s="535" t="s">
         <v>439</v>
       </c>
-      <c r="W10" s="587"/>
-      <c r="X10" s="657">
+      <c r="W10" s="536"/>
+      <c r="X10" s="603">
         <v>16985</v>
       </c>
-      <c r="Y10" s="645"/>
-      <c r="Z10" s="586" t="s">
+      <c r="Y10" s="594"/>
+      <c r="Z10" s="535" t="s">
         <v>439</v>
       </c>
-      <c r="AA10" s="587"/>
-      <c r="AB10" s="586" t="s">
+      <c r="AA10" s="536"/>
+      <c r="AB10" s="535" t="s">
         <v>439</v>
       </c>
-      <c r="AC10" s="656"/>
-      <c r="AD10" s="584">
+      <c r="AC10" s="602"/>
+      <c r="AD10" s="533">
         <f>X10/R10</f>
         <v>117.95138888888889</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="566" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A11" s="655" t="s">
+    <row r="11" spans="1:30" s="515" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A11" s="708" t="s">
         <v>442</v>
       </c>
-      <c r="B11" s="654"/>
-      <c r="C11" s="653"/>
-      <c r="D11" s="652"/>
-      <c r="E11" s="651"/>
-      <c r="F11" s="639"/>
-      <c r="G11" s="638"/>
-      <c r="H11" s="639"/>
-      <c r="I11" s="638"/>
-      <c r="J11" s="650"/>
-      <c r="K11" s="649"/>
-      <c r="L11" s="643"/>
-      <c r="M11" s="638"/>
-      <c r="N11" s="643"/>
-      <c r="O11" s="648"/>
-      <c r="P11" s="647" t="s">
+      <c r="B11" s="709"/>
+      <c r="C11" s="710"/>
+      <c r="D11" s="601"/>
+      <c r="E11" s="600"/>
+      <c r="F11" s="588"/>
+      <c r="G11" s="587"/>
+      <c r="H11" s="588"/>
+      <c r="I11" s="587"/>
+      <c r="J11" s="599"/>
+      <c r="K11" s="598"/>
+      <c r="L11" s="592"/>
+      <c r="M11" s="587"/>
+      <c r="N11" s="592"/>
+      <c r="O11" s="597"/>
+      <c r="P11" s="596" t="s">
         <v>441</v>
       </c>
-      <c r="Q11" s="646"/>
-      <c r="R11" s="628">
+      <c r="Q11" s="595"/>
+      <c r="R11" s="577">
         <v>133</v>
       </c>
-      <c r="S11" s="645"/>
-      <c r="T11" s="591" t="s">
+      <c r="S11" s="594"/>
+      <c r="T11" s="540" t="s">
         <v>439</v>
       </c>
-      <c r="U11" s="590"/>
-      <c r="V11" s="591" t="s">
+      <c r="U11" s="539"/>
+      <c r="V11" s="540" t="s">
         <v>439</v>
       </c>
-      <c r="W11" s="590"/>
-      <c r="X11" s="628"/>
-      <c r="Y11" s="645"/>
-      <c r="Z11" s="644"/>
-      <c r="AA11" s="638"/>
-      <c r="AB11" s="643"/>
-      <c r="AC11" s="585"/>
-      <c r="AD11" s="584">
+      <c r="W11" s="539"/>
+      <c r="X11" s="577"/>
+      <c r="Y11" s="594"/>
+      <c r="Z11" s="593"/>
+      <c r="AA11" s="587"/>
+      <c r="AB11" s="592"/>
+      <c r="AC11" s="534"/>
+      <c r="AD11" s="533">
         <f>X11/R11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="566" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A12" s="642"/>
-      <c r="B12" s="630"/>
-      <c r="C12" s="624"/>
-      <c r="D12" s="641"/>
-      <c r="E12" s="640"/>
-      <c r="F12" s="639"/>
-      <c r="G12" s="638"/>
-      <c r="H12" s="637"/>
-      <c r="I12" s="626"/>
-      <c r="J12" s="636"/>
-      <c r="K12" s="635"/>
-      <c r="L12" s="633"/>
-      <c r="M12" s="634"/>
-      <c r="N12" s="633"/>
-      <c r="O12" s="632"/>
-      <c r="P12" s="631" t="s">
+    <row r="12" spans="1:30" s="515" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A12" s="591"/>
+      <c r="B12" s="579"/>
+      <c r="C12" s="573"/>
+      <c r="D12" s="590"/>
+      <c r="E12" s="589"/>
+      <c r="F12" s="588"/>
+      <c r="G12" s="587"/>
+      <c r="H12" s="586"/>
+      <c r="I12" s="575"/>
+      <c r="J12" s="585"/>
+      <c r="K12" s="584"/>
+      <c r="L12" s="582"/>
+      <c r="M12" s="583"/>
+      <c r="N12" s="582"/>
+      <c r="O12" s="581"/>
+      <c r="P12" s="580" t="s">
         <v>440</v>
       </c>
-      <c r="Q12" s="630"/>
-      <c r="R12" s="629">
+      <c r="Q12" s="579"/>
+      <c r="R12" s="578">
         <v>11</v>
       </c>
-      <c r="S12" s="607"/>
-      <c r="T12" s="591" t="s">
+      <c r="S12" s="556"/>
+      <c r="T12" s="540" t="s">
         <v>439</v>
       </c>
-      <c r="U12" s="590"/>
-      <c r="V12" s="591" t="s">
+      <c r="U12" s="539"/>
+      <c r="V12" s="540" t="s">
         <v>439</v>
       </c>
-      <c r="W12" s="590"/>
-      <c r="X12" s="628"/>
-      <c r="Y12" s="607"/>
-      <c r="Z12" s="627"/>
-      <c r="AA12" s="626"/>
-      <c r="AB12" s="625"/>
-      <c r="AC12" s="624"/>
-      <c r="AD12" s="584">
+      <c r="W12" s="539"/>
+      <c r="X12" s="577"/>
+      <c r="Y12" s="556"/>
+      <c r="Z12" s="576"/>
+      <c r="AA12" s="575"/>
+      <c r="AB12" s="574"/>
+      <c r="AC12" s="573"/>
+      <c r="AD12" s="533">
         <f>X12/R12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="566" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A13" s="623" t="s">
+    <row r="13" spans="1:30" s="515" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A13" s="572" t="s">
         <v>438</v>
       </c>
-      <c r="B13" s="622"/>
-      <c r="C13" s="622"/>
-      <c r="D13" s="621">
+      <c r="B13" s="571"/>
+      <c r="C13" s="571"/>
+      <c r="D13" s="570">
         <v>6548.8130000000001</v>
       </c>
-      <c r="E13" s="620" t="s">
+      <c r="E13" s="569" t="s">
         <v>431</v>
       </c>
-      <c r="F13" s="619">
+      <c r="F13" s="568">
         <v>-3.8875929707521713</v>
       </c>
-      <c r="G13" s="617" t="s">
+      <c r="G13" s="566" t="s">
         <v>431</v>
       </c>
-      <c r="H13" s="618">
+      <c r="H13" s="567">
         <v>-1.2382295727032673</v>
       </c>
-      <c r="I13" s="617" t="s">
+      <c r="I13" s="566" t="s">
         <v>431</v>
       </c>
-      <c r="J13" s="616">
+      <c r="J13" s="565">
         <v>3113.28</v>
       </c>
-      <c r="K13" s="615" t="s">
+      <c r="K13" s="564" t="s">
         <v>431</v>
       </c>
-      <c r="L13" s="614">
+      <c r="L13" s="563">
         <v>-0.16790037312618811</v>
       </c>
-      <c r="M13" s="615" t="s">
+      <c r="M13" s="564" t="s">
         <v>431</v>
       </c>
-      <c r="N13" s="614">
+      <c r="N13" s="563">
         <v>3.9039750626188043</v>
       </c>
-      <c r="O13" s="613" t="s">
+      <c r="O13" s="562" t="s">
         <v>431</v>
       </c>
-      <c r="P13" s="612" t="s">
+      <c r="P13" s="561" t="s">
         <v>437</v>
       </c>
-      <c r="Q13" s="611"/>
-      <c r="R13" s="608">
+      <c r="Q13" s="560"/>
+      <c r="R13" s="557">
         <v>1092</v>
       </c>
-      <c r="S13" s="607"/>
-      <c r="T13" s="610">
+      <c r="S13" s="556"/>
+      <c r="T13" s="559">
         <v>3.7037037037037033</v>
       </c>
-      <c r="U13" s="609"/>
-      <c r="V13" s="610">
+      <c r="U13" s="558"/>
+      <c r="V13" s="559">
         <v>1.1111111111111112</v>
       </c>
-      <c r="W13" s="609"/>
-      <c r="X13" s="608">
+      <c r="W13" s="558"/>
+      <c r="X13" s="557">
         <v>53546</v>
       </c>
-      <c r="Y13" s="607"/>
-      <c r="Z13" s="586">
+      <c r="Y13" s="556"/>
+      <c r="Z13" s="535">
         <v>4.7108747091147309</v>
       </c>
-      <c r="AA13" s="587"/>
-      <c r="AB13" s="586">
+      <c r="AA13" s="536"/>
+      <c r="AB13" s="535">
         <v>1.4839944658188502</v>
       </c>
-      <c r="AC13" s="585"/>
-      <c r="AD13" s="584">
+      <c r="AC13" s="534"/>
+      <c r="AD13" s="533">
         <f>X13/R13</f>
         <v>49.034798534798533</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="566" customFormat="1" ht="15.95" customHeight="1" thickBot="1">
-      <c r="A14" s="606" t="s">
+    <row r="14" spans="1:30" s="515" customFormat="1" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A14" s="555" t="s">
         <v>436</v>
       </c>
-      <c r="B14" s="605"/>
-      <c r="C14" s="604"/>
-      <c r="D14" s="603">
+      <c r="B14" s="554"/>
+      <c r="C14" s="553"/>
+      <c r="D14" s="552">
         <v>26760.547092000001</v>
       </c>
-      <c r="E14" s="602" t="s">
+      <c r="E14" s="551" t="s">
         <v>431</v>
       </c>
-      <c r="F14" s="601">
+      <c r="F14" s="550">
         <v>-3.2677220554915696</v>
       </c>
-      <c r="G14" s="600" t="s">
+      <c r="G14" s="549" t="s">
         <v>431</v>
       </c>
-      <c r="H14" s="601">
+      <c r="H14" s="550">
         <v>1.7764163533925206</v>
       </c>
-      <c r="I14" s="600" t="s">
+      <c r="I14" s="549" t="s">
         <v>431</v>
       </c>
-      <c r="J14" s="599" t="s">
+      <c r="J14" s="548" t="s">
         <v>435</v>
       </c>
-      <c r="K14" s="598"/>
-      <c r="L14" s="596" t="s">
+      <c r="K14" s="547"/>
+      <c r="L14" s="545" t="s">
         <v>435</v>
       </c>
-      <c r="M14" s="597"/>
-      <c r="N14" s="596" t="s">
+      <c r="M14" s="546"/>
+      <c r="N14" s="545" t="s">
         <v>435</v>
       </c>
-      <c r="O14" s="595"/>
-      <c r="P14" s="594" t="s">
+      <c r="O14" s="544"/>
+      <c r="P14" s="543" t="s">
         <v>434</v>
       </c>
-      <c r="Q14" s="593"/>
-      <c r="R14" s="589">
+      <c r="Q14" s="542"/>
+      <c r="R14" s="538">
         <v>18137</v>
       </c>
-      <c r="S14" s="588"/>
-      <c r="T14" s="591">
+      <c r="S14" s="537"/>
+      <c r="T14" s="540">
         <v>-5.5105527084366557E-2</v>
       </c>
-      <c r="U14" s="592"/>
-      <c r="V14" s="591" t="s">
+      <c r="U14" s="541"/>
+      <c r="V14" s="540" t="s">
         <v>433</v>
       </c>
-      <c r="W14" s="590"/>
-      <c r="X14" s="589">
+      <c r="W14" s="539"/>
+      <c r="X14" s="538">
         <v>78744</v>
       </c>
-      <c r="Y14" s="588"/>
-      <c r="Z14" s="586">
+      <c r="Y14" s="537"/>
+      <c r="Z14" s="535">
         <v>-1.6634197512363256</v>
       </c>
-      <c r="AA14" s="587"/>
-      <c r="AB14" s="586">
+      <c r="AA14" s="536"/>
+      <c r="AB14" s="535">
         <v>-9.3887183130756932E-2</v>
       </c>
-      <c r="AC14" s="585"/>
-      <c r="AD14" s="584">
+      <c r="AC14" s="534"/>
+      <c r="AD14" s="533">
         <f>X14/R14</f>
         <v>4.3416220984727349</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="566" customFormat="1" ht="15.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="583" t="s">
+    <row r="15" spans="1:30" s="515" customFormat="1" ht="15.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="532" t="s">
         <v>432</v>
       </c>
-      <c r="B15" s="575"/>
-      <c r="C15" s="567"/>
-      <c r="D15" s="582">
+      <c r="B15" s="524"/>
+      <c r="C15" s="516"/>
+      <c r="D15" s="531">
         <v>391378.51509200002</v>
       </c>
-      <c r="E15" s="580" t="s">
+      <c r="E15" s="529" t="s">
         <v>431</v>
       </c>
-      <c r="F15" s="581">
+      <c r="F15" s="530">
         <v>-0.64082103357988085</v>
       </c>
-      <c r="G15" s="580" t="s">
+      <c r="G15" s="529" t="s">
         <v>431</v>
       </c>
-      <c r="H15" s="581">
+      <c r="H15" s="530">
         <v>1.4031939584678075</v>
       </c>
-      <c r="I15" s="580" t="s">
+      <c r="I15" s="529" t="s">
         <v>431</v>
       </c>
-      <c r="J15" s="579"/>
-      <c r="K15" s="574"/>
-      <c r="L15" s="578"/>
-      <c r="M15" s="578"/>
-      <c r="N15" s="578"/>
-      <c r="O15" s="577"/>
-      <c r="P15" s="576"/>
-      <c r="Q15" s="575"/>
-      <c r="R15" s="575"/>
-      <c r="S15" s="574"/>
-      <c r="T15" s="573"/>
-      <c r="U15" s="573"/>
-      <c r="V15" s="573"/>
-      <c r="W15" s="572"/>
-      <c r="X15" s="571">
+      <c r="J15" s="528"/>
+      <c r="K15" s="523"/>
+      <c r="L15" s="527"/>
+      <c r="M15" s="527"/>
+      <c r="N15" s="527"/>
+      <c r="O15" s="526"/>
+      <c r="P15" s="525"/>
+      <c r="Q15" s="524"/>
+      <c r="R15" s="524"/>
+      <c r="S15" s="523"/>
+      <c r="T15" s="522"/>
+      <c r="U15" s="522"/>
+      <c r="V15" s="522"/>
+      <c r="W15" s="521"/>
+      <c r="X15" s="520">
         <v>1730759</v>
       </c>
-      <c r="Y15" s="570"/>
-      <c r="Z15" s="568">
+      <c r="Y15" s="519"/>
+      <c r="Z15" s="517">
         <v>1.5517698637338702</v>
       </c>
-      <c r="AA15" s="569"/>
-      <c r="AB15" s="568">
+      <c r="AA15" s="518"/>
+      <c r="AB15" s="517">
         <v>5.7811521720655887E-2</v>
       </c>
-      <c r="AC15" s="567"/>
+      <c r="AC15" s="516"/>
     </row>
     <row r="16" spans="1:30" ht="6" customHeight="1" thickTop="1"/>
-    <row r="17" spans="1:28" s="531" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A17" s="565" t="s">
+    <row r="17" spans="1:28" s="491" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A17" s="514" t="s">
         <v>430</v>
       </c>
-      <c r="B17" s="562" t="s">
+      <c r="B17" s="512" t="s">
         <v>429</v>
       </c>
-      <c r="D17" s="532"/>
-      <c r="E17" s="529"/>
-      <c r="G17" s="552"/>
-      <c r="I17" s="552"/>
-      <c r="J17" s="530"/>
-      <c r="K17" s="529"/>
-      <c r="L17" s="564" t="s">
+      <c r="D17" s="492"/>
+      <c r="E17" s="489"/>
+      <c r="G17" s="504"/>
+      <c r="I17" s="504"/>
+      <c r="J17" s="490"/>
+      <c r="K17" s="489"/>
+      <c r="L17" s="513" t="s">
         <v>428</v>
       </c>
-      <c r="M17" s="564"/>
-      <c r="N17" s="558"/>
-      <c r="O17" s="558"/>
-      <c r="P17" s="558" t="s">
+      <c r="M17" s="513"/>
+      <c r="N17" s="508"/>
+      <c r="O17" s="508"/>
+      <c r="P17" s="508" t="s">
         <v>427</v>
       </c>
-      <c r="S17" s="527"/>
-      <c r="W17" s="552"/>
-      <c r="Y17" s="527"/>
-    </row>
-    <row r="18" spans="1:28" s="531" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="550" t="s">
+      <c r="S17" s="487"/>
+      <c r="W17" s="504"/>
+      <c r="Y17" s="487"/>
+    </row>
+    <row r="18" spans="1:28" s="491" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="502" t="s">
         <v>426</v>
       </c>
-      <c r="B18" s="562" t="s">
+      <c r="B18" s="512" t="s">
         <v>425</v>
       </c>
-      <c r="C18" s="556"/>
-      <c r="D18" s="561"/>
-      <c r="E18" s="560"/>
-      <c r="F18" s="559"/>
-      <c r="G18" s="557"/>
-      <c r="H18" s="559"/>
-      <c r="I18" s="557"/>
-      <c r="J18" s="530"/>
-      <c r="K18" s="529"/>
-      <c r="N18" s="549" t="s">
+      <c r="C18" s="506"/>
+      <c r="D18" s="511"/>
+      <c r="E18" s="510"/>
+      <c r="F18" s="509"/>
+      <c r="G18" s="507"/>
+      <c r="H18" s="509"/>
+      <c r="I18" s="507"/>
+      <c r="J18" s="490"/>
+      <c r="K18" s="489"/>
+      <c r="N18" s="501" t="s">
         <v>424</v>
       </c>
-      <c r="O18" s="549"/>
-      <c r="P18" s="563" t="s">
+      <c r="O18" s="501"/>
+      <c r="P18" s="726" t="s">
         <v>423</v>
       </c>
-      <c r="Q18" s="563"/>
-      <c r="R18" s="563"/>
-      <c r="S18" s="563"/>
-      <c r="T18" s="563"/>
-      <c r="U18" s="563"/>
-      <c r="V18" s="563"/>
-      <c r="W18" s="563"/>
-      <c r="X18" s="563"/>
-      <c r="Y18" s="563"/>
-      <c r="Z18" s="563"/>
-      <c r="AA18" s="563"/>
-      <c r="AB18" s="563"/>
+      <c r="Q18" s="726"/>
+      <c r="R18" s="726"/>
+      <c r="S18" s="726"/>
+      <c r="T18" s="726"/>
+      <c r="U18" s="726"/>
+      <c r="V18" s="726"/>
+      <c r="W18" s="726"/>
+      <c r="X18" s="726"/>
+      <c r="Y18" s="726"/>
+      <c r="Z18" s="726"/>
+      <c r="AA18" s="726"/>
+      <c r="AB18" s="726"/>
     </row>
     <row r="19" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A19" s="550" t="s">
+      <c r="A19" s="502" t="s">
         <v>421</v>
       </c>
-      <c r="B19" s="562" t="s">
+      <c r="B19" s="512" t="s">
         <v>422</v>
       </c>
-      <c r="C19" s="556"/>
-      <c r="D19" s="561"/>
-      <c r="E19" s="560"/>
-      <c r="F19" s="559"/>
-      <c r="G19" s="557"/>
-      <c r="H19" s="559"/>
-      <c r="I19" s="557"/>
-      <c r="N19" s="549" t="s">
+      <c r="C19" s="506"/>
+      <c r="D19" s="511"/>
+      <c r="E19" s="510"/>
+      <c r="F19" s="509"/>
+      <c r="G19" s="507"/>
+      <c r="H19" s="509"/>
+      <c r="I19" s="507"/>
+      <c r="N19" s="501" t="s">
         <v>421</v>
       </c>
-      <c r="O19" s="549"/>
-      <c r="P19" s="558" t="s">
+      <c r="O19" s="501"/>
+      <c r="P19" s="508" t="s">
         <v>420</v>
       </c>
-      <c r="Q19" s="556"/>
-      <c r="R19" s="556"/>
-      <c r="S19" s="553"/>
-      <c r="T19" s="556"/>
-      <c r="U19" s="556"/>
-      <c r="V19" s="556"/>
-      <c r="W19" s="557"/>
-      <c r="X19" s="556"/>
-      <c r="Y19" s="553"/>
-      <c r="Z19" s="556"/>
-      <c r="AA19" s="556"/>
-      <c r="AB19" s="556"/>
-    </row>
-    <row r="20" spans="1:28" s="531" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="550"/>
-      <c r="B20" s="555" t="s">
+      <c r="Q19" s="506"/>
+      <c r="R19" s="506"/>
+      <c r="S19" s="505"/>
+      <c r="T19" s="506"/>
+      <c r="U19" s="506"/>
+      <c r="V19" s="506"/>
+      <c r="W19" s="507"/>
+      <c r="X19" s="506"/>
+      <c r="Y19" s="505"/>
+      <c r="Z19" s="506"/>
+      <c r="AA19" s="506"/>
+      <c r="AB19" s="506"/>
+    </row>
+    <row r="20" spans="1:28" s="491" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="502"/>
+      <c r="B20" s="731" t="s">
         <v>419</v>
       </c>
-      <c r="C20" s="555"/>
-      <c r="D20" s="555"/>
-      <c r="E20" s="529"/>
-      <c r="G20" s="552"/>
-      <c r="I20" s="552"/>
-      <c r="J20" s="530"/>
-      <c r="K20" s="529"/>
-      <c r="N20" s="549"/>
-      <c r="O20" s="549"/>
-      <c r="P20" s="554" t="s">
+      <c r="C20" s="731"/>
+      <c r="D20" s="731"/>
+      <c r="E20" s="489"/>
+      <c r="G20" s="504"/>
+      <c r="I20" s="504"/>
+      <c r="J20" s="490"/>
+      <c r="K20" s="489"/>
+      <c r="N20" s="501"/>
+      <c r="O20" s="501"/>
+      <c r="P20" s="727" t="s">
         <v>418</v>
       </c>
-      <c r="Q20" s="554"/>
-      <c r="R20" s="554"/>
-      <c r="S20" s="554"/>
-      <c r="T20" s="554"/>
-      <c r="U20" s="553"/>
-      <c r="W20" s="552"/>
-      <c r="Y20" s="527"/>
+      <c r="Q20" s="727"/>
+      <c r="R20" s="727"/>
+      <c r="S20" s="727"/>
+      <c r="T20" s="727"/>
+      <c r="U20" s="505"/>
+      <c r="W20" s="504"/>
+      <c r="Y20" s="487"/>
     </row>
     <row r="21" spans="1:28" ht="13.5" customHeight="1">
-      <c r="A21" s="550" t="s">
+      <c r="A21" s="502" t="s">
         <v>416</v>
       </c>
-      <c r="B21" s="536" t="s">
+      <c r="B21" s="711" t="s">
         <v>417</v>
       </c>
-      <c r="C21" s="533"/>
-      <c r="D21" s="533"/>
-      <c r="E21" s="533"/>
-      <c r="F21" s="533"/>
-      <c r="G21" s="533"/>
-      <c r="H21" s="533"/>
-      <c r="I21" s="533"/>
-      <c r="J21" s="533"/>
-      <c r="K21" s="535"/>
-      <c r="L21" s="551"/>
-      <c r="M21" s="551"/>
-      <c r="N21" s="549" t="s">
+      <c r="C21" s="725"/>
+      <c r="D21" s="725"/>
+      <c r="E21" s="725"/>
+      <c r="F21" s="725"/>
+      <c r="G21" s="725"/>
+      <c r="H21" s="725"/>
+      <c r="I21" s="725"/>
+      <c r="J21" s="725"/>
+      <c r="K21" s="494"/>
+      <c r="L21" s="503"/>
+      <c r="M21" s="503"/>
+      <c r="N21" s="501" t="s">
         <v>416</v>
       </c>
-      <c r="O21" s="549"/>
-      <c r="P21" s="533" t="s">
+      <c r="O21" s="501"/>
+      <c r="P21" s="725" t="s">
         <v>415</v>
       </c>
-      <c r="Q21" s="533"/>
-      <c r="R21" s="533"/>
-      <c r="S21" s="533"/>
-      <c r="T21" s="533"/>
-      <c r="U21" s="533"/>
-      <c r="V21" s="533"/>
-      <c r="W21" s="533"/>
-      <c r="X21" s="533"/>
-      <c r="Y21" s="533"/>
-      <c r="Z21" s="533"/>
-      <c r="AA21" s="533"/>
-      <c r="AB21" s="533"/>
-    </row>
-    <row r="22" spans="1:28" s="531" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A22" s="550"/>
-      <c r="B22" s="533"/>
-      <c r="C22" s="533"/>
-      <c r="D22" s="533"/>
-      <c r="E22" s="533"/>
-      <c r="F22" s="533"/>
-      <c r="G22" s="533"/>
-      <c r="H22" s="533"/>
-      <c r="I22" s="533"/>
-      <c r="J22" s="533"/>
-      <c r="K22" s="535"/>
-      <c r="N22" s="549"/>
-      <c r="O22" s="549"/>
-      <c r="P22" s="533"/>
-      <c r="Q22" s="533"/>
-      <c r="R22" s="533"/>
-      <c r="S22" s="533"/>
-      <c r="T22" s="533"/>
-      <c r="U22" s="533"/>
-      <c r="V22" s="533"/>
-      <c r="W22" s="533"/>
-      <c r="X22" s="533"/>
-      <c r="Y22" s="533"/>
-      <c r="Z22" s="533"/>
-      <c r="AA22" s="533"/>
-      <c r="AB22" s="533"/>
-    </row>
-    <row r="23" spans="1:28" s="531" customFormat="1" ht="3.75" customHeight="1">
-      <c r="A23" s="550"/>
-      <c r="B23" s="533"/>
-      <c r="C23" s="533"/>
-      <c r="D23" s="533"/>
-      <c r="E23" s="533"/>
-      <c r="F23" s="533"/>
-      <c r="G23" s="533"/>
-      <c r="H23" s="533"/>
-      <c r="I23" s="533"/>
-      <c r="J23" s="533"/>
-      <c r="K23" s="535"/>
-      <c r="N23" s="549"/>
-      <c r="O23" s="549"/>
-      <c r="P23" s="533"/>
-      <c r="Q23" s="533"/>
-      <c r="R23" s="533"/>
-      <c r="S23" s="533"/>
-      <c r="T23" s="533"/>
-      <c r="U23" s="533"/>
-      <c r="V23" s="533"/>
-      <c r="W23" s="533"/>
-      <c r="X23" s="533"/>
-      <c r="Y23" s="533"/>
-      <c r="Z23" s="533"/>
-      <c r="AA23" s="533"/>
-      <c r="AB23" s="533"/>
-    </row>
-    <row r="24" spans="1:28" s="531" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A24" s="548" t="s">
+      <c r="Q21" s="725"/>
+      <c r="R21" s="725"/>
+      <c r="S21" s="725"/>
+      <c r="T21" s="725"/>
+      <c r="U21" s="725"/>
+      <c r="V21" s="725"/>
+      <c r="W21" s="725"/>
+      <c r="X21" s="725"/>
+      <c r="Y21" s="725"/>
+      <c r="Z21" s="725"/>
+      <c r="AA21" s="725"/>
+      <c r="AB21" s="725"/>
+    </row>
+    <row r="22" spans="1:28" s="491" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A22" s="502"/>
+      <c r="B22" s="725"/>
+      <c r="C22" s="725"/>
+      <c r="D22" s="725"/>
+      <c r="E22" s="725"/>
+      <c r="F22" s="725"/>
+      <c r="G22" s="725"/>
+      <c r="H22" s="725"/>
+      <c r="I22" s="725"/>
+      <c r="J22" s="725"/>
+      <c r="K22" s="494"/>
+      <c r="N22" s="501"/>
+      <c r="O22" s="501"/>
+      <c r="P22" s="725"/>
+      <c r="Q22" s="725"/>
+      <c r="R22" s="725"/>
+      <c r="S22" s="725"/>
+      <c r="T22" s="725"/>
+      <c r="U22" s="725"/>
+      <c r="V22" s="725"/>
+      <c r="W22" s="725"/>
+      <c r="X22" s="725"/>
+      <c r="Y22" s="725"/>
+      <c r="Z22" s="725"/>
+      <c r="AA22" s="725"/>
+      <c r="AB22" s="725"/>
+    </row>
+    <row r="23" spans="1:28" s="491" customFormat="1" ht="3.75" customHeight="1">
+      <c r="A23" s="502"/>
+      <c r="B23" s="725"/>
+      <c r="C23" s="725"/>
+      <c r="D23" s="725"/>
+      <c r="E23" s="725"/>
+      <c r="F23" s="725"/>
+      <c r="G23" s="725"/>
+      <c r="H23" s="725"/>
+      <c r="I23" s="725"/>
+      <c r="J23" s="725"/>
+      <c r="K23" s="494"/>
+      <c r="N23" s="501"/>
+      <c r="O23" s="501"/>
+      <c r="P23" s="725"/>
+      <c r="Q23" s="725"/>
+      <c r="R23" s="725"/>
+      <c r="S23" s="725"/>
+      <c r="T23" s="725"/>
+      <c r="U23" s="725"/>
+      <c r="V23" s="725"/>
+      <c r="W23" s="725"/>
+      <c r="X23" s="725"/>
+      <c r="Y23" s="725"/>
+      <c r="Z23" s="725"/>
+      <c r="AA23" s="725"/>
+      <c r="AB23" s="725"/>
+    </row>
+    <row r="24" spans="1:28" s="491" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A24" s="500" t="s">
         <v>413</v>
       </c>
-      <c r="B24" s="547" t="s">
+      <c r="B24" s="730" t="s">
         <v>414</v>
       </c>
-      <c r="C24" s="547"/>
-      <c r="D24" s="547"/>
-      <c r="E24" s="544"/>
-      <c r="F24" s="544"/>
-      <c r="G24" s="544"/>
-      <c r="H24" s="544"/>
-      <c r="I24" s="544"/>
-      <c r="J24" s="544"/>
-      <c r="K24" s="529"/>
-      <c r="N24" s="546" t="s">
+      <c r="C24" s="730"/>
+      <c r="D24" s="730"/>
+      <c r="E24" s="729"/>
+      <c r="F24" s="729"/>
+      <c r="G24" s="729"/>
+      <c r="H24" s="729"/>
+      <c r="I24" s="729"/>
+      <c r="J24" s="729"/>
+      <c r="K24" s="489"/>
+      <c r="N24" s="499" t="s">
         <v>413</v>
       </c>
-      <c r="O24" s="546"/>
-      <c r="P24" s="545" t="s">
+      <c r="O24" s="499"/>
+      <c r="P24" s="728" t="s">
         <v>412</v>
       </c>
-      <c r="Q24" s="545"/>
-      <c r="R24" s="545"/>
-      <c r="S24" s="545"/>
-      <c r="T24" s="545"/>
-      <c r="U24" s="545"/>
-      <c r="V24" s="545"/>
-      <c r="W24" s="545"/>
-      <c r="X24" s="544"/>
-      <c r="Y24" s="544"/>
-      <c r="Z24" s="544"/>
-      <c r="AA24" s="544"/>
-      <c r="AB24" s="544"/>
-    </row>
-    <row r="25" spans="1:28" s="531" customFormat="1" ht="33" customHeight="1">
-      <c r="A25" s="537" t="s">
+      <c r="Q24" s="728"/>
+      <c r="R24" s="728"/>
+      <c r="S24" s="728"/>
+      <c r="T24" s="728"/>
+      <c r="U24" s="728"/>
+      <c r="V24" s="728"/>
+      <c r="W24" s="728"/>
+      <c r="X24" s="729"/>
+      <c r="Y24" s="729"/>
+      <c r="Z24" s="729"/>
+      <c r="AA24" s="729"/>
+      <c r="AB24" s="729"/>
+    </row>
+    <row r="25" spans="1:28" s="491" customFormat="1" ht="33" customHeight="1">
+      <c r="A25" s="495" t="s">
         <v>410</v>
       </c>
-      <c r="B25" s="543" t="s">
+      <c r="B25" s="732" t="s">
         <v>411</v>
       </c>
-      <c r="C25" s="543"/>
-      <c r="D25" s="543"/>
-      <c r="E25" s="543"/>
-      <c r="F25" s="543"/>
-      <c r="G25" s="543"/>
-      <c r="H25" s="543"/>
-      <c r="I25" s="543"/>
-      <c r="J25" s="543"/>
-      <c r="K25" s="542"/>
-      <c r="L25" s="542"/>
-      <c r="M25" s="542"/>
-      <c r="N25" s="534" t="s">
+      <c r="C25" s="732"/>
+      <c r="D25" s="732"/>
+      <c r="E25" s="732"/>
+      <c r="F25" s="732"/>
+      <c r="G25" s="732"/>
+      <c r="H25" s="732"/>
+      <c r="I25" s="732"/>
+      <c r="J25" s="732"/>
+      <c r="K25" s="498"/>
+      <c r="L25" s="498"/>
+      <c r="M25" s="498"/>
+      <c r="N25" s="493" t="s">
         <v>410</v>
       </c>
-      <c r="O25" s="534"/>
-      <c r="P25" s="541" t="s">
+      <c r="O25" s="493"/>
+      <c r="P25" s="734" t="s">
         <v>409</v>
       </c>
-      <c r="Q25" s="541"/>
-      <c r="R25" s="541"/>
-      <c r="S25" s="541"/>
-      <c r="T25" s="541"/>
-      <c r="U25" s="541"/>
-      <c r="V25" s="541"/>
-      <c r="W25" s="541"/>
-      <c r="X25" s="541"/>
-      <c r="Y25" s="541"/>
-      <c r="Z25" s="541"/>
-      <c r="AA25" s="541"/>
-      <c r="AB25" s="541"/>
-    </row>
-    <row r="26" spans="1:28" s="531" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="537" t="s">
+      <c r="Q25" s="734"/>
+      <c r="R25" s="734"/>
+      <c r="S25" s="734"/>
+      <c r="T25" s="734"/>
+      <c r="U25" s="734"/>
+      <c r="V25" s="734"/>
+      <c r="W25" s="734"/>
+      <c r="X25" s="734"/>
+      <c r="Y25" s="734"/>
+      <c r="Z25" s="734"/>
+      <c r="AA25" s="734"/>
+      <c r="AB25" s="734"/>
+    </row>
+    <row r="26" spans="1:28" s="491" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A26" s="495" t="s">
         <v>407</v>
       </c>
-      <c r="B26" s="536" t="s">
+      <c r="B26" s="711" t="s">
         <v>408</v>
       </c>
-      <c r="C26" s="536"/>
-      <c r="D26" s="536"/>
-      <c r="E26" s="536"/>
-      <c r="F26" s="536"/>
-      <c r="G26" s="536"/>
-      <c r="H26" s="536"/>
-      <c r="I26" s="536"/>
-      <c r="J26" s="536"/>
-      <c r="K26" s="535"/>
-      <c r="N26" s="534" t="s">
+      <c r="C26" s="711"/>
+      <c r="D26" s="711"/>
+      <c r="E26" s="711"/>
+      <c r="F26" s="711"/>
+      <c r="G26" s="711"/>
+      <c r="H26" s="711"/>
+      <c r="I26" s="711"/>
+      <c r="J26" s="711"/>
+      <c r="K26" s="494"/>
+      <c r="N26" s="493" t="s">
         <v>407</v>
       </c>
-      <c r="O26" s="534"/>
-      <c r="P26" s="533" t="s">
+      <c r="O26" s="493"/>
+      <c r="P26" s="725" t="s">
         <v>406</v>
       </c>
-      <c r="Q26" s="533"/>
-      <c r="R26" s="533"/>
-      <c r="S26" s="533"/>
-      <c r="T26" s="533"/>
-      <c r="U26" s="533"/>
-      <c r="V26" s="533"/>
-      <c r="W26" s="533"/>
-      <c r="X26" s="533"/>
-      <c r="Y26" s="533"/>
-      <c r="Z26" s="533"/>
-      <c r="AA26" s="533"/>
-      <c r="AB26" s="533"/>
-    </row>
-    <row r="27" spans="1:28" s="531" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="537" t="s">
+      <c r="Q26" s="725"/>
+      <c r="R26" s="725"/>
+      <c r="S26" s="725"/>
+      <c r="T26" s="725"/>
+      <c r="U26" s="725"/>
+      <c r="V26" s="725"/>
+      <c r="W26" s="725"/>
+      <c r="X26" s="725"/>
+      <c r="Y26" s="725"/>
+      <c r="Z26" s="725"/>
+      <c r="AA26" s="725"/>
+      <c r="AB26" s="725"/>
+    </row>
+    <row r="27" spans="1:28" s="491" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="495" t="s">
         <v>404</v>
       </c>
-      <c r="B27" s="536" t="s">
+      <c r="B27" s="711" t="s">
         <v>405</v>
       </c>
-      <c r="C27" s="536"/>
-      <c r="D27" s="536"/>
-      <c r="E27" s="536"/>
-      <c r="F27" s="536"/>
-      <c r="G27" s="536"/>
-      <c r="H27" s="536"/>
-      <c r="I27" s="536"/>
-      <c r="J27" s="536"/>
-      <c r="K27" s="535"/>
-      <c r="N27" s="534" t="s">
+      <c r="C27" s="711"/>
+      <c r="D27" s="711"/>
+      <c r="E27" s="711"/>
+      <c r="F27" s="711"/>
+      <c r="G27" s="711"/>
+      <c r="H27" s="711"/>
+      <c r="I27" s="711"/>
+      <c r="J27" s="711"/>
+      <c r="K27" s="494"/>
+      <c r="N27" s="493" t="s">
         <v>404</v>
       </c>
-      <c r="O27" s="534"/>
-      <c r="P27" s="533" t="s">
+      <c r="O27" s="493"/>
+      <c r="P27" s="725" t="s">
         <v>403</v>
       </c>
-      <c r="Q27" s="533"/>
-      <c r="R27" s="533"/>
-      <c r="S27" s="533"/>
-      <c r="T27" s="533"/>
-      <c r="U27" s="533"/>
-      <c r="V27" s="533"/>
-      <c r="W27" s="533"/>
-      <c r="X27" s="533"/>
-      <c r="Y27" s="533"/>
-      <c r="Z27" s="533"/>
-      <c r="AA27" s="533"/>
-      <c r="AB27" s="533"/>
-    </row>
-    <row r="28" spans="1:28" s="531" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="537" t="s">
+      <c r="Q27" s="725"/>
+      <c r="R27" s="725"/>
+      <c r="S27" s="725"/>
+      <c r="T27" s="725"/>
+      <c r="U27" s="725"/>
+      <c r="V27" s="725"/>
+      <c r="W27" s="725"/>
+      <c r="X27" s="725"/>
+      <c r="Y27" s="725"/>
+      <c r="Z27" s="725"/>
+      <c r="AA27" s="725"/>
+      <c r="AB27" s="725"/>
+    </row>
+    <row r="28" spans="1:28" s="491" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="495" t="s">
         <v>401</v>
       </c>
-      <c r="B28" s="536" t="s">
+      <c r="B28" s="711" t="s">
         <v>402</v>
       </c>
-      <c r="C28" s="536"/>
-      <c r="D28" s="536"/>
-      <c r="E28" s="536"/>
-      <c r="F28" s="536"/>
-      <c r="G28" s="536"/>
-      <c r="H28" s="536"/>
-      <c r="I28" s="536"/>
-      <c r="J28" s="536"/>
-      <c r="K28" s="535"/>
-      <c r="N28" s="534" t="s">
+      <c r="C28" s="711"/>
+      <c r="D28" s="711"/>
+      <c r="E28" s="711"/>
+      <c r="F28" s="711"/>
+      <c r="G28" s="711"/>
+      <c r="H28" s="711"/>
+      <c r="I28" s="711"/>
+      <c r="J28" s="711"/>
+      <c r="K28" s="494"/>
+      <c r="N28" s="493" t="s">
         <v>401</v>
       </c>
-      <c r="O28" s="534"/>
-      <c r="P28" s="533" t="s">
+      <c r="O28" s="493"/>
+      <c r="P28" s="725" t="s">
         <v>400</v>
       </c>
-      <c r="Q28" s="533"/>
-      <c r="R28" s="533"/>
-      <c r="S28" s="533"/>
-      <c r="T28" s="533"/>
-      <c r="U28" s="533"/>
-      <c r="V28" s="533"/>
-      <c r="W28" s="533"/>
-      <c r="X28" s="533"/>
-      <c r="Y28" s="533"/>
-      <c r="Z28" s="533"/>
-      <c r="AA28" s="533"/>
-      <c r="AB28" s="533"/>
-    </row>
-    <row r="29" spans="1:28" s="531" customFormat="1" ht="57" customHeight="1">
-      <c r="A29" s="537" t="s">
+      <c r="Q28" s="725"/>
+      <c r="R28" s="725"/>
+      <c r="S28" s="725"/>
+      <c r="T28" s="725"/>
+      <c r="U28" s="725"/>
+      <c r="V28" s="725"/>
+      <c r="W28" s="725"/>
+      <c r="X28" s="725"/>
+      <c r="Y28" s="725"/>
+      <c r="Z28" s="725"/>
+      <c r="AA28" s="725"/>
+      <c r="AB28" s="725"/>
+    </row>
+    <row r="29" spans="1:28" s="491" customFormat="1" ht="57" customHeight="1">
+      <c r="A29" s="495" t="s">
         <v>398</v>
       </c>
-      <c r="B29" s="536" t="s">
+      <c r="B29" s="711" t="s">
         <v>399</v>
       </c>
-      <c r="C29" s="536"/>
-      <c r="D29" s="536"/>
-      <c r="E29" s="536"/>
-      <c r="F29" s="536"/>
-      <c r="G29" s="536"/>
-      <c r="H29" s="536"/>
-      <c r="I29" s="536"/>
-      <c r="J29" s="536"/>
-      <c r="K29" s="535"/>
-      <c r="N29" s="534" t="s">
+      <c r="C29" s="711"/>
+      <c r="D29" s="711"/>
+      <c r="E29" s="711"/>
+      <c r="F29" s="711"/>
+      <c r="G29" s="711"/>
+      <c r="H29" s="711"/>
+      <c r="I29" s="711"/>
+      <c r="J29" s="711"/>
+      <c r="K29" s="494"/>
+      <c r="N29" s="493" t="s">
         <v>398</v>
       </c>
-      <c r="O29" s="534"/>
-      <c r="P29" s="533" t="s">
+      <c r="O29" s="493"/>
+      <c r="P29" s="725" t="s">
         <v>397</v>
       </c>
-      <c r="Q29" s="533"/>
-      <c r="R29" s="533"/>
-      <c r="S29" s="533"/>
-      <c r="T29" s="533"/>
-      <c r="U29" s="533"/>
-      <c r="V29" s="533"/>
-      <c r="W29" s="533"/>
-      <c r="X29" s="533"/>
-      <c r="Y29" s="533"/>
-      <c r="Z29" s="533"/>
-      <c r="AA29" s="533"/>
-      <c r="AB29" s="533"/>
-    </row>
-    <row r="30" spans="1:28" s="531" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A30" s="537" t="s">
+      <c r="Q29" s="725"/>
+      <c r="R29" s="725"/>
+      <c r="S29" s="725"/>
+      <c r="T29" s="725"/>
+      <c r="U29" s="725"/>
+      <c r="V29" s="725"/>
+      <c r="W29" s="725"/>
+      <c r="X29" s="725"/>
+      <c r="Y29" s="725"/>
+      <c r="Z29" s="725"/>
+      <c r="AA29" s="725"/>
+      <c r="AB29" s="725"/>
+    </row>
+    <row r="30" spans="1:28" s="491" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A30" s="495" t="s">
         <v>395</v>
       </c>
-      <c r="B30" s="536" t="s">
+      <c r="B30" s="711" t="s">
         <v>396</v>
       </c>
-      <c r="C30" s="536"/>
-      <c r="D30" s="536"/>
-      <c r="E30" s="536"/>
-      <c r="F30" s="536"/>
-      <c r="G30" s="536"/>
-      <c r="H30" s="536"/>
-      <c r="I30" s="536"/>
-      <c r="J30" s="536"/>
-      <c r="K30" s="535"/>
-      <c r="N30" s="534" t="s">
+      <c r="C30" s="711"/>
+      <c r="D30" s="711"/>
+      <c r="E30" s="711"/>
+      <c r="F30" s="711"/>
+      <c r="G30" s="711"/>
+      <c r="H30" s="711"/>
+      <c r="I30" s="711"/>
+      <c r="J30" s="711"/>
+      <c r="K30" s="494"/>
+      <c r="N30" s="493" t="s">
         <v>395</v>
       </c>
-      <c r="O30" s="534"/>
-      <c r="P30" s="533" t="s">
+      <c r="O30" s="493"/>
+      <c r="P30" s="725" t="s">
         <v>394</v>
       </c>
-      <c r="Q30" s="533"/>
-      <c r="R30" s="533"/>
-      <c r="S30" s="533"/>
-      <c r="T30" s="533"/>
-      <c r="U30" s="533"/>
-      <c r="V30" s="533"/>
-      <c r="W30" s="533"/>
-      <c r="X30" s="533"/>
-      <c r="Y30" s="533"/>
-      <c r="Z30" s="533"/>
-      <c r="AA30" s="533"/>
-      <c r="AB30" s="533"/>
-    </row>
-    <row r="31" spans="1:28" s="531" customFormat="1" ht="68.099999999999994" customHeight="1">
-      <c r="A31" s="537" t="s">
+      <c r="Q30" s="725"/>
+      <c r="R30" s="725"/>
+      <c r="S30" s="725"/>
+      <c r="T30" s="725"/>
+      <c r="U30" s="725"/>
+      <c r="V30" s="725"/>
+      <c r="W30" s="725"/>
+      <c r="X30" s="725"/>
+      <c r="Y30" s="725"/>
+      <c r="Z30" s="725"/>
+      <c r="AA30" s="725"/>
+      <c r="AB30" s="725"/>
+    </row>
+    <row r="31" spans="1:28" s="491" customFormat="1" ht="68.099999999999994" customHeight="1">
+      <c r="A31" s="495" t="s">
         <v>392</v>
       </c>
-      <c r="B31" s="536" t="s">
+      <c r="B31" s="711" t="s">
         <v>393</v>
       </c>
-      <c r="C31" s="533"/>
-      <c r="D31" s="533"/>
-      <c r="E31" s="533"/>
-      <c r="F31" s="533"/>
-      <c r="G31" s="533"/>
-      <c r="H31" s="533"/>
-      <c r="I31" s="533"/>
-      <c r="J31" s="533"/>
-      <c r="K31" s="535"/>
-      <c r="N31" s="534" t="s">
+      <c r="C31" s="725"/>
+      <c r="D31" s="725"/>
+      <c r="E31" s="725"/>
+      <c r="F31" s="725"/>
+      <c r="G31" s="725"/>
+      <c r="H31" s="725"/>
+      <c r="I31" s="725"/>
+      <c r="J31" s="725"/>
+      <c r="K31" s="494"/>
+      <c r="N31" s="493" t="s">
         <v>392</v>
       </c>
-      <c r="O31" s="534"/>
-      <c r="P31" s="533" t="s">
+      <c r="O31" s="493"/>
+      <c r="P31" s="725" t="s">
         <v>391</v>
       </c>
-      <c r="Q31" s="533"/>
-      <c r="R31" s="533"/>
-      <c r="S31" s="533"/>
-      <c r="T31" s="533"/>
-      <c r="U31" s="533"/>
-      <c r="V31" s="533"/>
-      <c r="W31" s="533"/>
-      <c r="X31" s="533"/>
-      <c r="Y31" s="533"/>
-      <c r="Z31" s="533"/>
-      <c r="AA31" s="533"/>
-      <c r="AB31" s="533"/>
+      <c r="Q31" s="725"/>
+      <c r="R31" s="725"/>
+      <c r="S31" s="725"/>
+      <c r="T31" s="725"/>
+      <c r="U31" s="725"/>
+      <c r="V31" s="725"/>
+      <c r="W31" s="725"/>
+      <c r="X31" s="725"/>
+      <c r="Y31" s="725"/>
+      <c r="Z31" s="725"/>
+      <c r="AA31" s="725"/>
+      <c r="AB31" s="725"/>
     </row>
     <row r="32" spans="1:28" ht="0.75" customHeight="1">
-      <c r="A32" s="540"/>
-      <c r="N32" s="539"/>
-      <c r="O32" s="539"/>
-      <c r="P32" s="533"/>
-      <c r="Q32" s="538"/>
-      <c r="R32" s="538"/>
-      <c r="S32" s="538"/>
-      <c r="T32" s="538"/>
-      <c r="U32" s="538"/>
-      <c r="V32" s="538"/>
-      <c r="W32" s="538"/>
-      <c r="X32" s="538"/>
-      <c r="Y32" s="538"/>
-      <c r="Z32" s="538"/>
-      <c r="AA32" s="538"/>
-      <c r="AB32" s="538"/>
-    </row>
-    <row r="33" spans="1:28" s="531" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="537" t="s">
+      <c r="A32" s="497"/>
+      <c r="N32" s="496"/>
+      <c r="O32" s="496"/>
+      <c r="P32" s="725"/>
+      <c r="Q32" s="733"/>
+      <c r="R32" s="733"/>
+      <c r="S32" s="733"/>
+      <c r="T32" s="733"/>
+      <c r="U32" s="733"/>
+      <c r="V32" s="733"/>
+      <c r="W32" s="733"/>
+      <c r="X32" s="733"/>
+      <c r="Y32" s="733"/>
+      <c r="Z32" s="733"/>
+      <c r="AA32" s="733"/>
+      <c r="AB32" s="733"/>
+    </row>
+    <row r="33" spans="1:28" s="491" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A33" s="495" t="s">
         <v>389</v>
       </c>
-      <c r="B33" s="536" t="s">
+      <c r="B33" s="711" t="s">
         <v>390</v>
       </c>
-      <c r="C33" s="536"/>
-      <c r="D33" s="536"/>
-      <c r="E33" s="536"/>
-      <c r="F33" s="536"/>
-      <c r="G33" s="536"/>
-      <c r="H33" s="536"/>
-      <c r="I33" s="536"/>
-      <c r="J33" s="536"/>
-      <c r="K33" s="535"/>
-      <c r="N33" s="534" t="s">
+      <c r="C33" s="711"/>
+      <c r="D33" s="711"/>
+      <c r="E33" s="711"/>
+      <c r="F33" s="711"/>
+      <c r="G33" s="711"/>
+      <c r="H33" s="711"/>
+      <c r="I33" s="711"/>
+      <c r="J33" s="711"/>
+      <c r="K33" s="494"/>
+      <c r="N33" s="493" t="s">
         <v>389</v>
       </c>
-      <c r="O33" s="534"/>
-      <c r="P33" s="533" t="s">
+      <c r="O33" s="493"/>
+      <c r="P33" s="725" t="s">
         <v>388</v>
       </c>
-      <c r="Q33" s="533"/>
-      <c r="R33" s="533"/>
-      <c r="S33" s="533"/>
-      <c r="T33" s="533"/>
-      <c r="U33" s="533"/>
-      <c r="V33" s="533"/>
-      <c r="W33" s="533"/>
-      <c r="X33" s="533"/>
-      <c r="Y33" s="533"/>
-      <c r="Z33" s="533"/>
-      <c r="AA33" s="533"/>
-      <c r="AB33" s="533"/>
+      <c r="Q33" s="725"/>
+      <c r="R33" s="725"/>
+      <c r="S33" s="725"/>
+      <c r="T33" s="725"/>
+      <c r="U33" s="725"/>
+      <c r="V33" s="725"/>
+      <c r="W33" s="725"/>
+      <c r="X33" s="725"/>
+      <c r="Y33" s="725"/>
+      <c r="Z33" s="725"/>
+      <c r="AA33" s="725"/>
+      <c r="AB33" s="725"/>
     </row>
     <row r="34" spans="1:28">
-      <c r="P34" s="533"/>
-      <c r="Q34" s="533"/>
-      <c r="R34" s="533"/>
-      <c r="S34" s="533"/>
-      <c r="T34" s="533"/>
-      <c r="U34" s="533"/>
-      <c r="V34" s="533"/>
-      <c r="W34" s="533"/>
-      <c r="X34" s="533"/>
-      <c r="Y34" s="533"/>
-      <c r="Z34" s="533"/>
-      <c r="AA34" s="533"/>
-      <c r="AB34" s="533"/>
+      <c r="P34" s="725"/>
+      <c r="Q34" s="725"/>
+      <c r="R34" s="725"/>
+      <c r="S34" s="725"/>
+      <c r="T34" s="725"/>
+      <c r="U34" s="725"/>
+      <c r="V34" s="725"/>
+      <c r="W34" s="725"/>
+      <c r="X34" s="725"/>
+      <c r="Y34" s="725"/>
+      <c r="Z34" s="725"/>
+      <c r="AA34" s="725"/>
+      <c r="AB34" s="725"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="P34:AB34"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="P26:AB26"/>
+    <mergeCell ref="P30:AB30"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="P33:AB33"/>
+    <mergeCell ref="P32:AB32"/>
+    <mergeCell ref="P29:AB29"/>
+    <mergeCell ref="P27:AB27"/>
+    <mergeCell ref="P28:AB28"/>
+    <mergeCell ref="P25:AB25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="P21:AB23"/>
+    <mergeCell ref="P18:AB18"/>
+    <mergeCell ref="P31:AB31"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="P24:AB24"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B21:J23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B6:C9"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J4:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="X4:AC5"/>
     <mergeCell ref="P4:W5"/>
     <mergeCell ref="T6:W6"/>
@@ -28737,54 +29807,8 @@
     <mergeCell ref="V9:W9"/>
     <mergeCell ref="Z7:AC7"/>
     <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="J4:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B6:C9"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B21:J23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A6:A9"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="P21:AB23"/>
-    <mergeCell ref="P18:AB18"/>
-    <mergeCell ref="P31:AB31"/>
     <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="P34:AB34"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="P26:AB26"/>
-    <mergeCell ref="P30:AB30"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="P33:AB33"/>
-    <mergeCell ref="P24:AB24"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="P32:AB32"/>
-    <mergeCell ref="P29:AB29"/>
-    <mergeCell ref="P27:AB27"/>
-    <mergeCell ref="P28:AB28"/>
-    <mergeCell ref="P25:AB25"/>
-    <mergeCell ref="B26:J26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -28794,24 +29818,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -29045,10 +30051,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F993BC35-6848-4C40-AF7E-DBDC1293138B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE64122B-8C8F-446D-8A84-108BF0669B81}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29072,21 +30108,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE64122B-8C8F-446D-8A84-108BF0669B81}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F993BC35-6848-4C40-AF7E-DBDC1293138B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>